--- a/supplementary_materials/SuppTable_2_v2.xlsx
+++ b/supplementary_materials/SuppTable_2_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cancerresearchmy.sharepoint.com/sites/TumourGenomics/Shared Documents/General/Projects/HRD200/Revision_June_2024/Resubmission_21.6.24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cancerresearchmy.sharepoint.com/sites/TumourGenomics/Shared Documents/General/Projects/HRD200/Revision_June_2024/Resubmission_21.6.24/supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{FEF0A7D5-25C0-49DD-BF01-1EE9527BD32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E983BB3-6336-429F-96DF-733CF386E4AF}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{FEF0A7D5-25C0-49DD-BF01-1EE9527BD32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62FD2BF3-C447-4871-B36C-01CBDC0CB874}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7C0B86AA-C974-44A8-9AC5-1699CCC9B0AC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="440">
   <si>
     <t>Supp. Table 2. Gene set to determine HRD in breast tumours. Gene start and end locations are based on the GrCh38 human reference genome.</t>
   </si>
@@ -1351,6 +1351,9 @@
   </si>
   <si>
     <t>Adjusted P-value</t>
+  </si>
+  <si>
+    <t>Positive log fold change indicates enrichment in the HRD High group while negative log fold change indicates enrichment in the HRD Low group</t>
   </si>
 </sst>
 </file>
@@ -1508,12 +1511,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1828,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20FC1AD-E354-4F8E-AD38-AB25FFE38B25}">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="H214" sqref="H214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1850,5018 +1853,5023 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>149002569</v>
-      </c>
-      <c r="F4" s="1">
-        <v>149051440</v>
-      </c>
-      <c r="G4" s="11">
-        <v>-5.3848684592281897</v>
-      </c>
-      <c r="H4" s="10">
-        <v>3.2630512378832002E-4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>55224303</v>
+        <v>149002569</v>
       </c>
       <c r="F5" s="1">
-        <v>55252177</v>
-      </c>
-      <c r="G5" s="11">
-        <v>-5.2906520938312598</v>
+        <v>149051440</v>
+      </c>
+      <c r="G5">
+        <v>-5.3848684592281897</v>
       </c>
       <c r="H5" s="10">
-        <v>1.63485578248408E-4</v>
+        <v>3.2630512378832002E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>70017992</v>
+        <v>55224303</v>
       </c>
       <c r="F6" s="1">
-        <v>70030233</v>
-      </c>
-      <c r="G6" s="11">
-        <v>4.5992872250252601</v>
-      </c>
-      <c r="H6" s="13">
-        <v>2.08219197057252E-8</v>
+        <v>55252177</v>
+      </c>
+      <c r="G6">
+        <v>-5.2906520938312598</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1.63485578248408E-4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
-        <v>120290619</v>
+        <v>70017992</v>
       </c>
       <c r="F7" s="1">
-        <v>120311528</v>
-      </c>
-      <c r="G7" s="11">
-        <v>-4.2936607840030998</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1.8187411014342799E-4</v>
+        <v>70030233</v>
+      </c>
+      <c r="G7">
+        <v>4.5992872250252601</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2.08219197057252E-8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>47308767</v>
+        <v>120290619</v>
       </c>
       <c r="F8" s="1">
-        <v>47366109</v>
-      </c>
-      <c r="G8" s="11">
-        <v>-4.2287890694980597</v>
+        <v>120311528</v>
+      </c>
+      <c r="G8">
+        <v>-4.2936607840030998</v>
       </c>
       <c r="H8" s="10">
-        <v>2.2237863533733999E-4</v>
+        <v>1.8187411014342799E-4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>86889769</v>
+        <v>47308767</v>
       </c>
       <c r="F9" s="1">
-        <v>86922241</v>
-      </c>
-      <c r="G9" s="11">
-        <v>-4.1302983359014096</v>
+        <v>47366109</v>
+      </c>
+      <c r="G9">
+        <v>-4.2287890694980597</v>
       </c>
       <c r="H9" s="10">
-        <v>8.4807121546226505E-4</v>
+        <v>2.2237863533733999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>38366693</v>
+        <v>86889769</v>
       </c>
       <c r="F10" s="1">
-        <v>38383429</v>
-      </c>
-      <c r="G10" s="11">
-        <v>4.0217475457694203</v>
-      </c>
-      <c r="H10" s="13">
-        <v>3.3727992416264002E-6</v>
+        <v>86922241</v>
+      </c>
+      <c r="G10">
+        <v>-4.1302983359014096</v>
+      </c>
+      <c r="H10" s="10">
+        <v>8.4807121546226505E-4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
         <v>22</v>
       </c>
       <c r="E11" s="1">
-        <v>115592849</v>
+        <v>38366693</v>
       </c>
       <c r="F11" s="1">
-        <v>115594164</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3.9399905179216201</v>
-      </c>
-      <c r="H11" s="13">
-        <v>8.3840434033362193E-6</v>
+        <v>38383429</v>
+      </c>
+      <c r="G11">
+        <v>4.0217475457694203</v>
+      </c>
+      <c r="H11" s="12">
+        <v>3.3727992416264002E-6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="1">
-        <v>70026432</v>
+        <v>115592849</v>
       </c>
       <c r="F12" s="1">
-        <v>70034889</v>
-      </c>
-      <c r="G12" s="11">
-        <v>3.9080218388226902</v>
-      </c>
-      <c r="H12" s="13">
-        <v>4.5782019381712696E-9</v>
+        <v>115594164</v>
+      </c>
+      <c r="G12">
+        <v>3.9399905179216201</v>
+      </c>
+      <c r="H12" s="12">
+        <v>8.3840434033362193E-6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>150670536</v>
+        <v>70026432</v>
       </c>
       <c r="F13" s="1">
-        <v>150693364</v>
-      </c>
-      <c r="G13" s="11">
-        <v>3.6896143498731502</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1.49664615713056E-6</v>
+        <v>70034889</v>
+      </c>
+      <c r="G13">
+        <v>3.9080218388226902</v>
+      </c>
+      <c r="H13" s="12">
+        <v>4.5782019381712696E-9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>47533160</v>
+        <v>150670536</v>
       </c>
       <c r="F14" s="1">
-        <v>47583991</v>
-      </c>
-      <c r="G14" s="11">
-        <v>-3.67804855118818</v>
-      </c>
-      <c r="H14" s="10">
-        <v>3.8905328264275202E-4</v>
+        <v>150693364</v>
+      </c>
+      <c r="G14">
+        <v>3.6896143498731502</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1.49664615713056E-6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>125687987</v>
+        <v>47533160</v>
       </c>
       <c r="F15" s="1">
-        <v>125702297</v>
-      </c>
-      <c r="G15" s="11">
-        <v>3.6395305351846199</v>
-      </c>
-      <c r="H15" s="13">
-        <v>3.68249292348734E-7</v>
+        <v>47583991</v>
+      </c>
+      <c r="G15">
+        <v>-3.67804855118818</v>
+      </c>
+      <c r="H15" s="10">
+        <v>3.8905328264275202E-4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>48348336</v>
+        <v>125687987</v>
       </c>
       <c r="F16" s="1">
-        <v>48369831</v>
-      </c>
-      <c r="G16" s="11">
-        <v>-3.6216935781742099</v>
-      </c>
-      <c r="H16" s="10">
-        <v>9.4134098374532601E-4</v>
+        <v>125702297</v>
+      </c>
+      <c r="G16">
+        <v>3.6395305351846199</v>
+      </c>
+      <c r="H16" s="12">
+        <v>3.68249292348734E-7</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>50786436</v>
+        <v>48348336</v>
       </c>
       <c r="F17" s="1">
-        <v>50815326</v>
-      </c>
-      <c r="G17" s="11">
-        <v>-3.5799791978845001</v>
+        <v>48369831</v>
+      </c>
+      <c r="G17">
+        <v>-3.6216935781742099</v>
       </c>
       <c r="H17" s="10">
-        <v>3.93717608014267E-4</v>
+        <v>9.4134098374532601E-4</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1">
-        <v>115939029</v>
+        <v>50786436</v>
       </c>
       <c r="F18" s="1">
-        <v>115992063</v>
-      </c>
-      <c r="G18" s="11">
-        <v>-3.5761908233815101</v>
-      </c>
-      <c r="H18" s="13">
-        <v>7.5850068509590905E-5</v>
+        <v>50815326</v>
+      </c>
+      <c r="G18">
+        <v>-3.5799791978845001</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3.93717608014267E-4</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
-        <v>100257649</v>
+        <v>115939029</v>
       </c>
       <c r="F19" s="1">
-        <v>100274184</v>
-      </c>
-      <c r="G19" s="11">
-        <v>-3.5718146742680799</v>
-      </c>
-      <c r="H19" s="13">
-        <v>2.3271774897922099E-6</v>
+        <v>115992063</v>
+      </c>
+      <c r="G19">
+        <v>-3.5761908233815101</v>
+      </c>
+      <c r="H19" s="12">
+        <v>7.5850068509590905E-5</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>123687368</v>
+        <v>100257649</v>
       </c>
       <c r="F20" s="1">
-        <v>123711025</v>
-      </c>
-      <c r="G20" s="11">
-        <v>3.5556682646084998</v>
-      </c>
-      <c r="H20" s="13">
-        <v>6.6440719966966102E-6</v>
+        <v>100274184</v>
+      </c>
+      <c r="G20">
+        <v>-3.5718146742680799</v>
+      </c>
+      <c r="H20" s="12">
+        <v>2.3271774897922099E-6</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>2833954</v>
+        <v>123687368</v>
       </c>
       <c r="F21" s="1">
-        <v>2837949</v>
-      </c>
-      <c r="G21" s="11">
-        <v>3.5476169539177098</v>
-      </c>
-      <c r="H21" s="13">
-        <v>2.04927300259665E-5</v>
+        <v>123711025</v>
+      </c>
+      <c r="G21">
+        <v>3.5556682646084998</v>
+      </c>
+      <c r="H21" s="12">
+        <v>6.6440719966966102E-6</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1">
-        <v>170190354</v>
+        <v>2833954</v>
       </c>
       <c r="F22" s="1">
-        <v>170241051</v>
-      </c>
-      <c r="G22" s="11">
-        <v>3.5452821211169301</v>
-      </c>
-      <c r="H22" s="13">
-        <v>2.59636990653441E-5</v>
+        <v>2837949</v>
+      </c>
+      <c r="G22">
+        <v>3.5476169539177098</v>
+      </c>
+      <c r="H22" s="12">
+        <v>2.04927300259665E-5</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>57212569</v>
+        <v>170190354</v>
       </c>
       <c r="F23" s="1">
-        <v>57233335</v>
-      </c>
-      <c r="G23" s="11">
-        <v>-3.48959840483304</v>
-      </c>
-      <c r="H23" s="10">
-        <v>3.4505313989642702E-4</v>
+        <v>170241051</v>
+      </c>
+      <c r="G23">
+        <v>3.5452821211169301</v>
+      </c>
+      <c r="H23" s="12">
+        <v>2.59636990653441E-5</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1">
-        <v>42212504</v>
+        <v>57212569</v>
       </c>
       <c r="F24" s="1">
-        <v>42233718</v>
-      </c>
-      <c r="G24" s="11">
-        <v>-3.4062074513958298</v>
+        <v>57233335</v>
+      </c>
+      <c r="G24">
+        <v>-3.48959840483304</v>
       </c>
       <c r="H24" s="10">
-        <v>4.3827063021056498E-4</v>
+        <v>3.4505313989642702E-4</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1">
-        <v>96634860</v>
+        <v>42212504</v>
       </c>
       <c r="F25" s="1">
-        <v>96640351</v>
-      </c>
-      <c r="G25" s="11">
-        <v>3.4000336559574702</v>
-      </c>
-      <c r="H25" s="13">
-        <v>1.95991855919042E-7</v>
+        <v>42233718</v>
+      </c>
+      <c r="G25">
+        <v>-3.4062074513958298</v>
+      </c>
+      <c r="H25" s="10">
+        <v>4.3827063021056498E-4</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1">
-        <v>148947143</v>
+        <v>96634860</v>
       </c>
       <c r="F26" s="1">
-        <v>149009587</v>
-      </c>
-      <c r="G26" s="11">
-        <v>-3.3805453808011201</v>
-      </c>
-      <c r="H26" s="10">
-        <v>3.6024790809366202E-4</v>
+        <v>96640351</v>
+      </c>
+      <c r="G26">
+        <v>3.4000336559574702</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1.95991855919042E-7</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>71518865</v>
+        <v>148947143</v>
       </c>
       <c r="F27" s="1">
-        <v>71835678</v>
-      </c>
-      <c r="G27" s="11">
-        <v>-3.37103065760996</v>
-      </c>
-      <c r="H27" s="13">
-        <v>6.1928006702107301E-5</v>
+        <v>149009587</v>
+      </c>
+      <c r="G27">
+        <v>-3.3805453808011201</v>
+      </c>
+      <c r="H27" s="10">
+        <v>3.6024790809366202E-4</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1">
-        <v>38059189</v>
+        <v>71518865</v>
       </c>
       <c r="F28" s="1">
-        <v>38069245</v>
-      </c>
-      <c r="G28" s="11">
-        <v>-3.3630030943639899</v>
-      </c>
-      <c r="H28" s="13">
-        <v>4.4971099252785E-5</v>
+        <v>71835678</v>
+      </c>
+      <c r="G28">
+        <v>-3.37103065760996</v>
+      </c>
+      <c r="H28" s="12">
+        <v>6.1928006702107301E-5</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1">
-        <v>205350506</v>
+        <v>38059189</v>
       </c>
       <c r="F29" s="1">
-        <v>205425082</v>
-      </c>
-      <c r="G29" s="11">
-        <v>3.3339428657891599</v>
-      </c>
-      <c r="H29" s="13">
-        <v>7.3341724951530598E-7</v>
+        <v>38069245</v>
+      </c>
+      <c r="G29">
+        <v>-3.3630030943639899</v>
+      </c>
+      <c r="H29" s="12">
+        <v>4.4971099252785E-5</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>86755697</v>
+        <v>205350506</v>
       </c>
       <c r="F30" s="1">
-        <v>86771432</v>
-      </c>
-      <c r="G30" s="11">
-        <v>3.3312400916252098</v>
-      </c>
-      <c r="H30" s="13">
-        <v>1.95991855919042E-7</v>
+        <v>205425082</v>
+      </c>
+      <c r="G30">
+        <v>3.3339428657891599</v>
+      </c>
+      <c r="H30" s="12">
+        <v>7.3341724951530598E-7</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1">
-        <v>34709002</v>
+        <v>86755697</v>
       </c>
       <c r="F31" s="1">
-        <v>34710121</v>
-      </c>
-      <c r="G31" s="11">
-        <v>-3.3005989027632299</v>
-      </c>
-      <c r="H31" s="13">
-        <v>3.1335927312446703E-5</v>
+        <v>86771432</v>
+      </c>
+      <c r="G31">
+        <v>3.3312400916252098</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1.95991855919042E-7</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1">
-        <v>168080306</v>
+        <v>34709002</v>
       </c>
       <c r="F32" s="1">
-        <v>168084467</v>
-      </c>
-      <c r="G32" s="11">
-        <v>3.2857921423466601</v>
-      </c>
-      <c r="H32" s="13">
-        <v>5.2888141117707196E-7</v>
+        <v>34710121</v>
+      </c>
+      <c r="G32">
+        <v>-3.3005989027632299</v>
+      </c>
+      <c r="H32" s="12">
+        <v>3.1335927312446703E-5</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
-        <v>39261266</v>
+        <v>168080306</v>
       </c>
       <c r="F33" s="1">
-        <v>39460074</v>
-      </c>
-      <c r="G33" s="11">
-        <v>3.2803259611887898</v>
-      </c>
-      <c r="H33" s="13">
-        <v>8.5105991717514605E-7</v>
+        <v>168084467</v>
+      </c>
+      <c r="G33">
+        <v>3.2857921423466601</v>
+      </c>
+      <c r="H33" s="12">
+        <v>5.2888141117707196E-7</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1">
-        <v>85253492</v>
+        <v>39261266</v>
       </c>
       <c r="F34" s="1">
-        <v>85307394</v>
-      </c>
-      <c r="G34" s="11">
-        <v>3.2704155973251199</v>
-      </c>
-      <c r="H34" s="13">
-        <v>8.4855045679906797E-5</v>
+        <v>39460074</v>
+      </c>
+      <c r="G34">
+        <v>3.2803259611887898</v>
+      </c>
+      <c r="H34" s="12">
+        <v>8.5105991717514605E-7</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1">
-        <v>37598113</v>
+        <v>85253492</v>
       </c>
       <c r="F35" s="1">
-        <v>37635959</v>
-      </c>
-      <c r="G35" s="11">
-        <v>-3.2694799934300698</v>
-      </c>
-      <c r="H35" s="10">
-        <v>2.3221818874394001E-4</v>
+        <v>85307394</v>
+      </c>
+      <c r="G35">
+        <v>3.2704155973251199</v>
+      </c>
+      <c r="H35" s="12">
+        <v>8.4855045679906797E-5</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
-        <v>119591276</v>
+        <v>37598113</v>
       </c>
       <c r="F36" s="1">
-        <v>119592686</v>
-      </c>
-      <c r="G36" s="11">
-        <v>3.2508013510966101</v>
-      </c>
-      <c r="H36" s="13">
-        <v>7.1683678843917E-6</v>
+        <v>37635959</v>
+      </c>
+      <c r="G36">
+        <v>-3.2694799934300698</v>
+      </c>
+      <c r="H36" s="10">
+        <v>2.3221818874394001E-4</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>150690028</v>
+        <v>119591276</v>
       </c>
       <c r="F37" s="1">
-        <v>150727105</v>
-      </c>
-      <c r="G37" s="11">
-        <v>-3.24381865104727</v>
-      </c>
-      <c r="H37" s="10">
-        <v>3.0746021294979898E-4</v>
+        <v>119592686</v>
+      </c>
+      <c r="G37">
+        <v>3.2508013510966101</v>
+      </c>
+      <c r="H37" s="12">
+        <v>7.1683678843917E-6</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
-        <v>42177235</v>
+        <v>150690028</v>
       </c>
       <c r="F38" s="1">
-        <v>42210895</v>
-      </c>
-      <c r="G38" s="11">
-        <v>-3.1951630372261302</v>
+        <v>150727105</v>
+      </c>
+      <c r="G38">
+        <v>-3.24381865104727</v>
       </c>
       <c r="H38" s="10">
-        <v>1.13204855456668E-4</v>
+        <v>3.0746021294979898E-4</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E39" s="1">
-        <v>37537046</v>
+        <v>42177235</v>
       </c>
       <c r="F39" s="1">
-        <v>37604729</v>
-      </c>
-      <c r="G39" s="11">
-        <v>-3.1807513662250502</v>
+        <v>42210895</v>
+      </c>
+      <c r="G39">
+        <v>-3.1951630372261302</v>
       </c>
       <c r="H39" s="10">
-        <v>4.2199181789423702E-4</v>
+        <v>1.13204855456668E-4</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1">
-        <v>48116884</v>
+        <v>37537046</v>
       </c>
       <c r="F40" s="1">
-        <v>48189929</v>
-      </c>
-      <c r="G40" s="11">
-        <v>-3.17695029864301</v>
+        <v>37604729</v>
+      </c>
+      <c r="G40">
+        <v>-3.1807513662250502</v>
       </c>
       <c r="H40" s="10">
-        <v>9.3162974982992895E-4</v>
+        <v>4.2199181789423702E-4</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D41" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1">
-        <v>41277553</v>
+        <v>48116884</v>
       </c>
       <c r="F41" s="1">
-        <v>41283395</v>
-      </c>
-      <c r="G41" s="11">
-        <v>3.15068482011106</v>
-      </c>
-      <c r="H41" s="13">
-        <v>5.70682635349822E-6</v>
+        <v>48189929</v>
+      </c>
+      <c r="G41">
+        <v>-3.17695029864301</v>
+      </c>
+      <c r="H41" s="10">
+        <v>9.3162974982992895E-4</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E42" s="1">
-        <v>47029270</v>
+        <v>41277553</v>
       </c>
       <c r="F42" s="1">
-        <v>47060641</v>
-      </c>
-      <c r="G42" s="11">
-        <v>3.14589499605523</v>
-      </c>
-      <c r="H42" s="13">
-        <v>1.20483130336895E-6</v>
+        <v>41283395</v>
+      </c>
+      <c r="G42">
+        <v>3.15068482011106</v>
+      </c>
+      <c r="H42" s="12">
+        <v>5.70682635349822E-6</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D43" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E43" s="1">
-        <v>15726029</v>
+        <v>47029270</v>
       </c>
       <c r="F43" s="1">
-        <v>15741448</v>
-      </c>
-      <c r="G43" s="11">
-        <v>-3.1241749653778399</v>
-      </c>
-      <c r="H43" s="10">
-        <v>2.6835639582804599E-4</v>
+        <v>47060641</v>
+      </c>
+      <c r="G43">
+        <v>3.14589499605523</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1.20483130336895E-6</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1">
-        <v>18807424</v>
+        <v>15726029</v>
       </c>
       <c r="F44" s="1">
-        <v>18812478</v>
-      </c>
-      <c r="G44" s="11">
-        <v>-3.11128385379862</v>
-      </c>
-      <c r="H44" s="13">
-        <v>6.64056010075162E-5</v>
+        <v>15741448</v>
+      </c>
+      <c r="G44">
+        <v>-3.1241749653778399</v>
+      </c>
+      <c r="H44" s="10">
+        <v>2.6835639582804599E-4</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>19421818</v>
+        <v>18807424</v>
       </c>
       <c r="F45" s="1">
-        <v>19510435</v>
-      </c>
-      <c r="G45" s="11">
-        <v>-3.0783075544358098</v>
-      </c>
-      <c r="H45" s="10">
-        <v>3.2217411421422401E-4</v>
+        <v>18812478</v>
+      </c>
+      <c r="G45">
+        <v>-3.11128385379862</v>
+      </c>
+      <c r="H45" s="12">
+        <v>6.64056010075162E-5</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E46" s="1">
-        <v>37414785</v>
+        <v>19421818</v>
       </c>
       <c r="F46" s="1">
-        <v>37673039</v>
-      </c>
-      <c r="G46" s="11">
-        <v>-3.0743596509883999</v>
+        <v>19510435</v>
+      </c>
+      <c r="G46">
+        <v>-3.0783075544358098</v>
       </c>
       <c r="H46" s="10">
-        <v>3.6409699253218503E-4</v>
+        <v>3.2217411421422401E-4</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1">
-        <v>215796266</v>
+        <v>37414785</v>
       </c>
       <c r="F47" s="1">
-        <v>216003151</v>
-      </c>
-      <c r="G47" s="11">
-        <v>-3.0614861766321</v>
+        <v>37673039</v>
+      </c>
+      <c r="G47">
+        <v>-3.0743596509883999</v>
       </c>
       <c r="H47" s="10">
-        <v>2.77336034954218E-4</v>
+        <v>3.6409699253218503E-4</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>28000021</v>
+        <v>215796266</v>
       </c>
       <c r="F48" s="1">
-        <v>28344504</v>
-      </c>
-      <c r="G48" s="11">
-        <v>3.0255904966894098</v>
-      </c>
-      <c r="H48" s="13">
-        <v>2.6535586615152499E-6</v>
+        <v>216003151</v>
+      </c>
+      <c r="G48">
+        <v>-3.0614861766321</v>
+      </c>
+      <c r="H48" s="10">
+        <v>2.77336034954218E-4</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E49" s="1">
-        <v>169556967</v>
+        <v>28000021</v>
       </c>
       <c r="F49" s="1">
-        <v>169587718</v>
-      </c>
-      <c r="G49" s="11">
-        <v>-3.02017215935915</v>
-      </c>
-      <c r="H49" s="10">
-        <v>5.0299533657731203E-4</v>
+        <v>28344504</v>
+      </c>
+      <c r="G49">
+        <v>3.0255904966894098</v>
+      </c>
+      <c r="H49" s="12">
+        <v>2.6535586615152499E-6</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D50" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>43731777</v>
+        <v>169556967</v>
       </c>
       <c r="F50" s="1">
-        <v>43735761</v>
-      </c>
-      <c r="G50" s="11">
-        <v>-3.0071819500872898</v>
-      </c>
-      <c r="H50" s="13">
-        <v>3.3771261072072102E-5</v>
+        <v>169587718</v>
+      </c>
+      <c r="G50">
+        <v>-3.02017215935915</v>
+      </c>
+      <c r="H50" s="10">
+        <v>5.0299533657731203E-4</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E51" s="1">
-        <v>120347020</v>
+        <v>43731777</v>
       </c>
       <c r="F51" s="1">
-        <v>120401418</v>
-      </c>
-      <c r="G51" s="11">
-        <v>-2.9911076519839002</v>
-      </c>
-      <c r="H51" s="10">
-        <v>1.3339285332877201E-4</v>
+        <v>43735761</v>
+      </c>
+      <c r="G51">
+        <v>-3.0071819500872898</v>
+      </c>
+      <c r="H51" s="12">
+        <v>3.3771261072072102E-5</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E52" s="1">
-        <v>48198863</v>
+        <v>120347020</v>
       </c>
       <c r="F52" s="1">
-        <v>48201149</v>
-      </c>
-      <c r="G52" s="11">
-        <v>-2.9899891675375398</v>
+        <v>120401418</v>
+      </c>
+      <c r="G52">
+        <v>-2.9911076519839002</v>
       </c>
       <c r="H52" s="10">
-        <v>4.8801388478870501E-4</v>
+        <v>1.3339285332877201E-4</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E53" s="1">
-        <v>1491165</v>
+        <v>48198863</v>
       </c>
       <c r="F53" s="1">
-        <v>1497926</v>
-      </c>
-      <c r="G53" s="11">
-        <v>-2.9648716823155699</v>
-      </c>
-      <c r="H53" s="13">
-        <v>1.3403233327101299E-5</v>
+        <v>48201149</v>
+      </c>
+      <c r="G53">
+        <v>-2.9899891675375398</v>
+      </c>
+      <c r="H53" s="10">
+        <v>4.8801388478870501E-4</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E54" s="1">
-        <v>147111209</v>
+        <v>1491165</v>
       </c>
       <c r="F54" s="1">
-        <v>147228080</v>
-      </c>
-      <c r="G54" s="11">
-        <v>2.93435938620937</v>
-      </c>
-      <c r="H54" s="13">
-        <v>9.7261342337352506E-5</v>
+        <v>1497926</v>
+      </c>
+      <c r="G54">
+        <v>-2.9648716823155699</v>
+      </c>
+      <c r="H54" s="12">
+        <v>1.3403233327101299E-5</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
       </c>
       <c r="E55" s="1">
-        <v>66764465</v>
+        <v>147111209</v>
       </c>
       <c r="F55" s="1">
-        <v>66950461</v>
-      </c>
-      <c r="G55" s="11">
-        <v>-2.9305954076479601</v>
-      </c>
-      <c r="H55" s="10">
-        <v>1.28366546621801E-4</v>
+        <v>147228080</v>
+      </c>
+      <c r="G55">
+        <v>2.93435938620937</v>
+      </c>
+      <c r="H55" s="12">
+        <v>9.7261342337352506E-5</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="1">
-        <v>7</v>
+        <v>109</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E56" s="1">
-        <v>16831435</v>
+        <v>66764465</v>
       </c>
       <c r="F56" s="1">
-        <v>16873057</v>
-      </c>
-      <c r="G56" s="11">
-        <v>-2.9213633736258702</v>
+        <v>66950461</v>
+      </c>
+      <c r="G56">
+        <v>-2.9305954076479601</v>
       </c>
       <c r="H56" s="10">
-        <v>1.8187411014342799E-4</v>
+        <v>1.28366546621801E-4</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D57" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E57" s="1">
-        <v>38065052</v>
+        <v>16831435</v>
       </c>
       <c r="F57" s="1">
-        <v>38510647</v>
-      </c>
-      <c r="G57" s="11">
-        <v>-2.91303968163046</v>
-      </c>
-      <c r="H57" s="13">
-        <v>2.2952820870091901E-5</v>
+        <v>16873057</v>
+      </c>
+      <c r="G57">
+        <v>-2.9213633736258702</v>
+      </c>
+      <c r="H57" s="10">
+        <v>1.8187411014342799E-4</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D58" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E58" s="1">
-        <v>4536421</v>
+        <v>38065052</v>
       </c>
       <c r="F58" s="1">
-        <v>4540486</v>
-      </c>
-      <c r="G58" s="11">
-        <v>-2.9112137959070599</v>
-      </c>
-      <c r="H58" s="13">
-        <v>4.2886365811462701E-5</v>
+        <v>38510647</v>
+      </c>
+      <c r="G58">
+        <v>-2.91303968163046</v>
+      </c>
+      <c r="H58" s="12">
+        <v>2.2952820870091901E-5</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D59" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E59" s="1">
-        <v>31830969</v>
+        <v>4536421</v>
       </c>
       <c r="F59" s="1">
-        <v>31846823</v>
-      </c>
-      <c r="G59" s="11">
-        <v>-2.9083569661013202</v>
-      </c>
-      <c r="H59" s="10">
-        <v>1.04439178662037E-4</v>
+        <v>4540486</v>
+      </c>
+      <c r="G59">
+        <v>-2.9112137959070599</v>
+      </c>
+      <c r="H59" s="12">
+        <v>4.2886365811462701E-5</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D60" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E60" s="1">
-        <v>35596873</v>
+        <v>31830969</v>
       </c>
       <c r="F60" s="1">
-        <v>35598141</v>
-      </c>
-      <c r="G60" s="11">
-        <v>2.8795557937720102</v>
-      </c>
-      <c r="H60" s="13">
-        <v>3.0184529098360301E-7</v>
+        <v>31846823</v>
+      </c>
+      <c r="G60">
+        <v>-2.9083569661013202</v>
+      </c>
+      <c r="H60" s="10">
+        <v>1.04439178662037E-4</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D61" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E61" s="1">
-        <v>165675216</v>
+        <v>35596873</v>
       </c>
       <c r="F61" s="1">
-        <v>165724947</v>
-      </c>
-      <c r="G61" s="11">
-        <v>-2.8673545784007599</v>
-      </c>
-      <c r="H61" s="10">
-        <v>3.11824667552761E-4</v>
+        <v>35598141</v>
+      </c>
+      <c r="G61">
+        <v>2.8795557937720102</v>
+      </c>
+      <c r="H61" s="12">
+        <v>3.0184529098360301E-7</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D62" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" s="1">
-        <v>40909354</v>
+        <v>165675216</v>
       </c>
       <c r="F62" s="1">
-        <v>40983041</v>
-      </c>
-      <c r="G62" s="11">
-        <v>-2.8591163341038901</v>
+        <v>165724947</v>
+      </c>
+      <c r="G62">
+        <v>-2.8673545784007599</v>
       </c>
       <c r="H62" s="10">
-        <v>4.79949656155297E-4</v>
+        <v>3.11824667552761E-4</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D63" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E63" s="1">
-        <v>1277272</v>
+        <v>40909354</v>
       </c>
       <c r="F63" s="1">
-        <v>1280214</v>
-      </c>
-      <c r="G63" s="11">
-        <v>-2.83535280117577</v>
-      </c>
-      <c r="H63" s="13">
-        <v>1.2724979760316701E-6</v>
+        <v>40983041</v>
+      </c>
+      <c r="G63">
+        <v>-2.8591163341038901</v>
+      </c>
+      <c r="H63" s="10">
+        <v>4.79949656155297E-4</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D64" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E64" s="1">
-        <v>115519611</v>
+        <v>1277272</v>
       </c>
       <c r="F64" s="1">
-        <v>115599380</v>
-      </c>
-      <c r="G64" s="11">
-        <v>2.82962558713582</v>
-      </c>
-      <c r="H64" s="13">
-        <v>1.25731608889137E-8</v>
+        <v>1280214</v>
+      </c>
+      <c r="G64">
+        <v>-2.83535280117577</v>
+      </c>
+      <c r="H64" s="12">
+        <v>1.2724979760316701E-6</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D65" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E65" s="1">
-        <v>137772654</v>
+        <v>115519611</v>
       </c>
       <c r="F65" s="1">
-        <v>137779924</v>
-      </c>
-      <c r="G65" s="11">
-        <v>-2.8240992401433598</v>
-      </c>
-      <c r="H65" s="10">
-        <v>4.98134056067372E-4</v>
+        <v>115599380</v>
+      </c>
+      <c r="G65">
+        <v>2.82962558713582</v>
+      </c>
+      <c r="H65" s="12">
+        <v>1.25731608889137E-8</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D66" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1">
-        <v>145813453</v>
+        <v>137772654</v>
       </c>
       <c r="F66" s="1">
-        <v>148118090</v>
-      </c>
-      <c r="G66" s="11">
-        <v>-2.8235204763205801</v>
+        <v>137779924</v>
+      </c>
+      <c r="G66">
+        <v>-2.8240992401433598</v>
       </c>
       <c r="H66" s="10">
-        <v>1.6891426107061E-4</v>
+        <v>4.98134056067372E-4</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D67" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" s="1">
-        <v>34505579</v>
+        <v>145813453</v>
       </c>
       <c r="F67" s="1">
-        <v>34524110</v>
-      </c>
-      <c r="G67" s="11">
-        <v>-2.82199700164951</v>
+        <v>148118090</v>
+      </c>
+      <c r="G67">
+        <v>-2.8235204763205801</v>
       </c>
       <c r="H67" s="10">
-        <v>3.12241908967059E-4</v>
+        <v>1.6891426107061E-4</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D68" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="1">
-        <v>138482695</v>
+        <v>34505579</v>
       </c>
       <c r="F68" s="1">
-        <v>138522846</v>
-      </c>
-      <c r="G68" s="11">
-        <v>2.8108984132945798</v>
+        <v>34524110</v>
+      </c>
+      <c r="G68">
+        <v>-2.82199700164951</v>
       </c>
       <c r="H68" s="10">
-        <v>1.5322457848473701E-4</v>
+        <v>3.12241908967059E-4</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E69" s="1">
-        <v>32930670</v>
+        <v>138482695</v>
       </c>
       <c r="F69" s="1">
-        <v>32962287</v>
-      </c>
-      <c r="G69" s="11">
-        <v>2.7828646357567299</v>
-      </c>
-      <c r="H69" s="13">
-        <v>8.1296056911065005E-8</v>
+        <v>138522846</v>
+      </c>
+      <c r="G69">
+        <v>2.8108984132945798</v>
+      </c>
+      <c r="H69" s="10">
+        <v>1.5322457848473701E-4</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D70" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>70924764</v>
+        <v>32930670</v>
       </c>
       <c r="F70" s="1">
-        <v>71012786</v>
-      </c>
-      <c r="G70" s="11">
-        <v>2.7615125280332999</v>
-      </c>
-      <c r="H70" s="10">
-        <v>7.8306255058341995E-4</v>
+        <v>32962287</v>
+      </c>
+      <c r="G70">
+        <v>2.7828646357567299</v>
+      </c>
+      <c r="H70" s="12">
+        <v>8.1296056911065005E-8</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D71" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E71" s="1">
-        <v>125820011</v>
+        <v>70924764</v>
       </c>
       <c r="F71" s="1">
-        <v>125826214</v>
-      </c>
-      <c r="G71" s="11">
-        <v>-2.7519847740487</v>
-      </c>
-      <c r="H71" s="13">
-        <v>2.7838564123056201E-7</v>
+        <v>71012786</v>
+      </c>
+      <c r="G71">
+        <v>2.7615125280332999</v>
+      </c>
+      <c r="H71" s="10">
+        <v>7.8306255058341995E-4</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D72" s="1">
         <v>11</v>
       </c>
       <c r="E72" s="1">
-        <v>34500340</v>
+        <v>125820011</v>
       </c>
       <c r="F72" s="1">
-        <v>34535352</v>
-      </c>
-      <c r="G72" s="11">
-        <v>2.7352052045675999</v>
-      </c>
-      <c r="H72" s="13">
-        <v>7.1244403172547201E-6</v>
+        <v>125826214</v>
+      </c>
+      <c r="G72">
+        <v>-2.7519847740487</v>
+      </c>
+      <c r="H72" s="12">
+        <v>2.7838564123056201E-7</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D73" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E73" s="1">
-        <v>30945637</v>
+        <v>34500340</v>
       </c>
       <c r="F73" s="1">
-        <v>31043408</v>
-      </c>
-      <c r="G73" s="11">
-        <v>-2.7350580568008298</v>
-      </c>
-      <c r="H73" s="10">
-        <v>8.9205554664576099E-4</v>
+        <v>34535352</v>
+      </c>
+      <c r="G73">
+        <v>2.7352052045675999</v>
+      </c>
+      <c r="H73" s="12">
+        <v>7.1244403172547201E-6</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D74" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1">
-        <v>97637973</v>
+        <v>30945637</v>
       </c>
       <c r="F74" s="1">
-        <v>97646984</v>
-      </c>
-      <c r="G74" s="11">
-        <v>2.7331106636253599</v>
-      </c>
-      <c r="H74" s="13">
-        <v>3.4554633095996398E-7</v>
+        <v>31043408</v>
+      </c>
+      <c r="G74">
+        <v>-2.7350580568008298</v>
+      </c>
+      <c r="H74" s="10">
+        <v>8.9205554664576099E-4</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D75" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E75" s="1">
-        <v>49115932</v>
+        <v>97637973</v>
       </c>
       <c r="F75" s="1">
-        <v>49255641</v>
-      </c>
-      <c r="G75" s="11">
-        <v>2.73250837049912</v>
-      </c>
-      <c r="H75" s="13">
-        <v>7.3118200892458E-6</v>
+        <v>97646984</v>
+      </c>
+      <c r="G75">
+        <v>2.7331106636253599</v>
+      </c>
+      <c r="H75" s="12">
+        <v>3.4554633095996398E-7</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E76" s="1">
-        <v>96584453</v>
+        <v>49115932</v>
       </c>
       <c r="F76" s="1">
-        <v>96643377</v>
-      </c>
-      <c r="G76" s="11">
-        <v>2.72664883301508</v>
-      </c>
-      <c r="H76" s="13">
-        <v>8.5825845901891799E-5</v>
+        <v>49255641</v>
+      </c>
+      <c r="G76">
+        <v>2.73250837049912</v>
+      </c>
+      <c r="H76" s="12">
+        <v>7.3118200892458E-6</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D77" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E77" s="1">
-        <v>113251143</v>
+        <v>96584453</v>
       </c>
       <c r="F77" s="1">
-        <v>113348425</v>
-      </c>
-      <c r="G77" s="11">
-        <v>-2.7255450064578102</v>
-      </c>
-      <c r="H77" s="13">
-        <v>1.8103229969605099E-7</v>
+        <v>96643377</v>
+      </c>
+      <c r="G77">
+        <v>2.72664883301508</v>
+      </c>
+      <c r="H77" s="12">
+        <v>8.5825845901891799E-5</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D78" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E78" s="1">
-        <v>22890123</v>
+        <v>113251143</v>
       </c>
       <c r="F78" s="1">
-        <v>22901768</v>
-      </c>
-      <c r="G78" s="11">
-        <v>2.7246994722514799</v>
-      </c>
-      <c r="H78" s="10">
-        <v>1.74213652766105E-4</v>
+        <v>113348425</v>
+      </c>
+      <c r="G78">
+        <v>-2.7255450064578102</v>
+      </c>
+      <c r="H78" s="12">
+        <v>1.8103229969605099E-7</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D79" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E79" s="1">
-        <v>70033455</v>
+        <v>22890123</v>
       </c>
       <c r="F79" s="1">
-        <v>70217977</v>
-      </c>
-      <c r="G79" s="11">
-        <v>2.72176377540652</v>
-      </c>
-      <c r="H79" s="13">
-        <v>1.0171315543185499E-11</v>
+        <v>22901768</v>
+      </c>
+      <c r="G79">
+        <v>2.7246994722514799</v>
+      </c>
+      <c r="H79" s="10">
+        <v>1.74213652766105E-4</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D80" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E80" s="1">
-        <v>113930315</v>
+        <v>70033455</v>
       </c>
       <c r="F80" s="1">
-        <v>114121398</v>
-      </c>
-      <c r="G80" s="11">
-        <v>-2.71600272351523</v>
-      </c>
-      <c r="H80" s="10">
-        <v>1.38362388880542E-4</v>
+        <v>70217977</v>
+      </c>
+      <c r="G80">
+        <v>2.72176377540652</v>
+      </c>
+      <c r="H80" s="12">
+        <v>1.0171315543185499E-11</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D81" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E81" s="1">
-        <v>23582035</v>
+        <v>113930315</v>
       </c>
       <c r="F81" s="1">
-        <v>23598877</v>
-      </c>
-      <c r="G81" s="11">
-        <v>2.7116876691654901</v>
-      </c>
-      <c r="H81" s="13">
-        <v>4.59084789377639E-5</v>
+        <v>114121398</v>
+      </c>
+      <c r="G81">
+        <v>-2.71600272351523</v>
+      </c>
+      <c r="H81" s="10">
+        <v>1.38362388880542E-4</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D82" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E82" s="1">
-        <v>148583043</v>
+        <v>23582035</v>
       </c>
       <c r="F82" s="1">
-        <v>148614983</v>
-      </c>
-      <c r="G82" s="11">
-        <v>-2.7083113191727199</v>
-      </c>
-      <c r="H82" s="13">
-        <v>1.97947294462352E-6</v>
+        <v>23598877</v>
+      </c>
+      <c r="G82">
+        <v>2.7116876691654901</v>
+      </c>
+      <c r="H82" s="12">
+        <v>4.59084789377639E-5</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" s="1">
-        <v>96331832</v>
+        <v>148583043</v>
       </c>
       <c r="F83" s="1">
-        <v>96334463</v>
-      </c>
-      <c r="G83" s="11">
-        <v>-2.7020065103115098</v>
-      </c>
-      <c r="H83" s="10">
-        <v>2.6494257326186701E-4</v>
+        <v>148614983</v>
+      </c>
+      <c r="G83">
+        <v>-2.7083113191727199</v>
+      </c>
+      <c r="H83" s="12">
+        <v>1.97947294462352E-6</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D84" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E84" s="1">
-        <v>1290697</v>
+        <v>96331832</v>
       </c>
       <c r="F84" s="1">
-        <v>1292555</v>
-      </c>
-      <c r="G84" s="11">
-        <v>-2.6997620164946898</v>
-      </c>
-      <c r="H84" s="13">
-        <v>2.2399208149852199E-6</v>
+        <v>96334463</v>
+      </c>
+      <c r="G84">
+        <v>-2.7020065103115098</v>
+      </c>
+      <c r="H84" s="10">
+        <v>2.6494257326186701E-4</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D85" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E85" s="1">
-        <v>54926393</v>
+        <v>1290697</v>
       </c>
       <c r="F85" s="1">
-        <v>54948080</v>
-      </c>
-      <c r="G85" s="11">
-        <v>2.69932080246884</v>
-      </c>
-      <c r="H85" s="13">
-        <v>2.9184988138288001E-5</v>
+        <v>1292555</v>
+      </c>
+      <c r="G85">
+        <v>-2.6997620164946898</v>
+      </c>
+      <c r="H85" s="12">
+        <v>2.2399208149852199E-6</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D86" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E86" s="1">
-        <v>228844666</v>
+        <v>54926393</v>
       </c>
       <c r="F86" s="1">
-        <v>229046361</v>
-      </c>
-      <c r="G86" s="11">
-        <v>2.6959255736282599</v>
-      </c>
-      <c r="H86" s="10">
-        <v>1.6794715616385501E-4</v>
+        <v>54948080</v>
+      </c>
+      <c r="G86">
+        <v>2.69932080246884</v>
+      </c>
+      <c r="H86" s="12">
+        <v>2.9184988138288001E-5</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D87" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E87" s="1">
-        <v>126413842</v>
+        <v>228844666</v>
       </c>
       <c r="F87" s="1">
-        <v>126480843</v>
-      </c>
-      <c r="G87" s="11">
-        <v>2.66991260793547</v>
-      </c>
-      <c r="H87" s="13">
-        <v>1.4708796177461999E-5</v>
+        <v>229046361</v>
+      </c>
+      <c r="G87">
+        <v>2.6959255736282599</v>
+      </c>
+      <c r="H87" s="10">
+        <v>1.6794715616385501E-4</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D88" s="1">
         <v>11</v>
       </c>
       <c r="E88" s="1">
-        <v>6280966</v>
+        <v>126413842</v>
       </c>
       <c r="F88" s="1">
-        <v>6293357</v>
-      </c>
-      <c r="G88" s="11">
-        <v>2.6570228319681299</v>
-      </c>
-      <c r="H88" s="10">
-        <v>2.3824467382865699E-4</v>
+        <v>126480843</v>
+      </c>
+      <c r="G88">
+        <v>2.66991260793547</v>
+      </c>
+      <c r="H88" s="12">
+        <v>1.4708796177461999E-5</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D89" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E89" s="1">
-        <v>112952328</v>
+        <v>6280966</v>
       </c>
       <c r="F89" s="1">
-        <v>112970469</v>
-      </c>
-      <c r="G89" s="11">
-        <v>-2.65113765377613</v>
+        <v>6293357</v>
+      </c>
+      <c r="G89">
+        <v>2.6570228319681299</v>
       </c>
       <c r="H89" s="10">
-        <v>1.78161759717186E-4</v>
+        <v>2.3824467382865699E-4</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D90" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E90" s="1">
-        <v>31264586</v>
+        <v>112952328</v>
       </c>
       <c r="F90" s="1">
-        <v>31359088</v>
-      </c>
-      <c r="G90" s="11">
-        <v>2.6366156991369598</v>
+        <v>112970469</v>
+      </c>
+      <c r="G90">
+        <v>-2.65113765377613</v>
       </c>
       <c r="H90" s="10">
-        <v>1.43675137531274E-4</v>
+        <v>1.78161759717186E-4</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D91" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E91" s="1">
-        <v>89753100</v>
+        <v>31264586</v>
       </c>
       <c r="F91" s="1">
-        <v>89764982</v>
-      </c>
-      <c r="G91" s="11">
-        <v>2.6354610399568701</v>
-      </c>
-      <c r="H91" s="13">
-        <v>3.9131221056784702E-5</v>
+        <v>31359088</v>
+      </c>
+      <c r="G91">
+        <v>2.6366156991369598</v>
+      </c>
+      <c r="H91" s="10">
+        <v>1.43675137531274E-4</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D92" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E92" s="1">
-        <v>113263041</v>
+        <v>89753100</v>
       </c>
       <c r="F92" s="1">
-        <v>113269857</v>
-      </c>
-      <c r="G92" s="11">
-        <v>2.6185571459362702</v>
-      </c>
-      <c r="H92" s="13">
-        <v>3.3727992416264002E-6</v>
+        <v>89764982</v>
+      </c>
+      <c r="G92">
+        <v>2.6354610399568701</v>
+      </c>
+      <c r="H92" s="12">
+        <v>3.9131221056784702E-5</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>9005926</v>
+        <v>113263041</v>
       </c>
       <c r="F93" s="1">
-        <v>9035151</v>
-      </c>
-      <c r="G93" s="11">
-        <v>2.6178073097108601</v>
-      </c>
-      <c r="H93" s="10">
-        <v>5.9735836524936004E-4</v>
+        <v>113269857</v>
+      </c>
+      <c r="G93">
+        <v>2.6185571459362702</v>
+      </c>
+      <c r="H93" s="12">
+        <v>3.3727992416264002E-6</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B94" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D94" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>126522747</v>
+        <v>9005926</v>
       </c>
       <c r="F94" s="1">
-        <v>126551999</v>
-      </c>
-      <c r="G94" s="11">
-        <v>2.6177661464265198</v>
-      </c>
-      <c r="H94" s="13">
-        <v>1.5313371666422899E-5</v>
+        <v>9035151</v>
+      </c>
+      <c r="G94">
+        <v>2.6178073097108601</v>
+      </c>
+      <c r="H94" s="10">
+        <v>5.9735836524936004E-4</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B95" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D95" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E95" s="1">
-        <v>117950438</v>
+        <v>126522747</v>
       </c>
       <c r="F95" s="1">
-        <v>117956726</v>
-      </c>
-      <c r="G95" s="11">
-        <v>2.6123768566236798</v>
-      </c>
-      <c r="H95" s="13">
-        <v>1.4117662243660199E-5</v>
+        <v>126551999</v>
+      </c>
+      <c r="G95">
+        <v>2.6177661464265198</v>
+      </c>
+      <c r="H95" s="12">
+        <v>1.5313371666422899E-5</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B96" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D96" s="1">
         <v>8</v>
       </c>
       <c r="E96" s="1">
-        <v>82390654</v>
+        <v>117950438</v>
       </c>
       <c r="F96" s="1">
-        <v>82395498</v>
-      </c>
-      <c r="G96" s="11">
-        <v>-2.6118244678989</v>
-      </c>
-      <c r="H96" s="10">
-        <v>7.6877429863602103E-4</v>
+        <v>117956726</v>
+      </c>
+      <c r="G96">
+        <v>2.6123768566236798</v>
+      </c>
+      <c r="H96" s="12">
+        <v>1.4117662243660199E-5</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B97" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D97" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E97" s="1">
-        <v>20301925</v>
+        <v>82390654</v>
       </c>
       <c r="F97" s="1">
-        <v>20306932</v>
-      </c>
-      <c r="G97" s="11">
-        <v>-2.6046799572604402</v>
+        <v>82395498</v>
+      </c>
+      <c r="G97">
+        <v>-2.6118244678989</v>
       </c>
       <c r="H97" s="10">
-        <v>5.5716201932612603E-4</v>
+        <v>7.6877429863602103E-4</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B98" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D98" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>52553316</v>
+        <v>20301925</v>
       </c>
       <c r="F98" s="1">
-        <v>52687304</v>
-      </c>
-      <c r="G98" s="11">
-        <v>-2.59886280975581</v>
-      </c>
-      <c r="H98" s="13">
-        <v>2.7640617589097799E-5</v>
+        <v>20306932</v>
+      </c>
+      <c r="G98">
+        <v>-2.6046799572604402</v>
+      </c>
+      <c r="H98" s="10">
+        <v>5.5716201932612603E-4</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B99" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D99" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E99" s="1">
-        <v>40359325</v>
+        <v>52553316</v>
       </c>
       <c r="F99" s="1">
-        <v>40555204</v>
-      </c>
-      <c r="G99" s="11">
-        <v>-2.5937097946641101</v>
-      </c>
-      <c r="H99" s="13">
-        <v>5.0033128387987599E-5</v>
+        <v>52687304</v>
+      </c>
+      <c r="G99">
+        <v>-2.59886280975581</v>
+      </c>
+      <c r="H99" s="12">
+        <v>2.7640617589097799E-5</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B100" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D100" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E100" s="1">
-        <v>75174190</v>
+        <v>40359325</v>
       </c>
       <c r="F100" s="1">
-        <v>75181024</v>
-      </c>
-      <c r="G100" s="11">
-        <v>-2.5898817665605902</v>
-      </c>
-      <c r="H100" s="10">
-        <v>2.55213542943149E-4</v>
+        <v>40555204</v>
+      </c>
+      <c r="G100">
+        <v>-2.5937097946641101</v>
+      </c>
+      <c r="H100" s="12">
+        <v>5.0033128387987599E-5</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B101" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D101" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E101" s="1">
-        <v>61294371</v>
+        <v>75174190</v>
       </c>
       <c r="F101" s="1">
-        <v>61298076</v>
-      </c>
-      <c r="G101" s="11">
-        <v>2.5843870053385598</v>
-      </c>
-      <c r="H101" s="13">
-        <v>3.4039793616693202E-7</v>
+        <v>75181024</v>
+      </c>
+      <c r="G101">
+        <v>-2.5898817665605902</v>
+      </c>
+      <c r="H101" s="10">
+        <v>2.55213542943149E-4</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B102" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D102" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E102" s="1">
-        <v>29603427</v>
+        <v>61294371</v>
       </c>
       <c r="F102" s="1">
-        <v>29606911</v>
-      </c>
-      <c r="G102" s="11">
-        <v>-2.5787505298996498</v>
-      </c>
-      <c r="H102" s="13">
-        <v>6.5120349073669899E-5</v>
+        <v>61298076</v>
+      </c>
+      <c r="G102">
+        <v>2.5843870053385598</v>
+      </c>
+      <c r="H102" s="12">
+        <v>3.4039793616693202E-7</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B103" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D103" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E103" s="1">
-        <v>76932337</v>
+        <v>29603427</v>
       </c>
       <c r="F103" s="1">
-        <v>77033955</v>
-      </c>
-      <c r="G103" s="11">
-        <v>2.5758595825250898</v>
-      </c>
-      <c r="H103" s="10">
-        <v>3.3910508724754803E-4</v>
+        <v>29606911</v>
+      </c>
+      <c r="G103">
+        <v>-2.5787505298996498</v>
+      </c>
+      <c r="H103" s="12">
+        <v>6.5120349073669899E-5</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B104" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D104" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E104" s="1">
-        <v>93115281</v>
+        <v>76932337</v>
       </c>
       <c r="F104" s="1">
-        <v>93166231</v>
-      </c>
-      <c r="G104" s="11">
-        <v>-2.5674817552379898</v>
-      </c>
-      <c r="H104" s="13">
-        <v>3.1995656733441603E-5</v>
+        <v>77033955</v>
+      </c>
+      <c r="G104">
+        <v>2.5758595825250898</v>
+      </c>
+      <c r="H104" s="10">
+        <v>3.3910508724754803E-4</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B105" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D105" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E105" s="1">
-        <v>25042728</v>
+        <v>93115281</v>
       </c>
       <c r="F105" s="1">
-        <v>25045466</v>
-      </c>
-      <c r="G105" s="11">
-        <v>-2.5592230148570301</v>
-      </c>
-      <c r="H105" s="10">
-        <v>1.18771525869106E-4</v>
+        <v>93166231</v>
+      </c>
+      <c r="G105">
+        <v>-2.5674817552379898</v>
+      </c>
+      <c r="H105" s="12">
+        <v>3.1995656733441603E-5</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B106" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D106" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E106" s="1">
-        <v>75700787</v>
+        <v>25042728</v>
       </c>
       <c r="F106" s="1">
-        <v>75704281</v>
-      </c>
-      <c r="G106" s="11">
-        <v>-2.5578618401793101</v>
-      </c>
-      <c r="H106" s="13">
-        <v>6.0690162736928998E-5</v>
+        <v>25045466</v>
+      </c>
+      <c r="G106">
+        <v>-2.5592230148570301</v>
+      </c>
+      <c r="H106" s="10">
+        <v>1.18771525869106E-4</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B107" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D107" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E107" s="1">
-        <v>177534653</v>
+        <v>75700787</v>
       </c>
       <c r="F107" s="1">
-        <v>177617012</v>
-      </c>
-      <c r="G107" s="11">
-        <v>-2.5468572316362801</v>
-      </c>
-      <c r="H107" s="10">
-        <v>1.0884946846791201E-4</v>
+        <v>75704281</v>
+      </c>
+      <c r="G107">
+        <v>-2.5578618401793101</v>
+      </c>
+      <c r="H107" s="12">
+        <v>6.0690162736928998E-5</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B108" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D108" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E108" s="1">
-        <v>79172497</v>
+        <v>177534653</v>
       </c>
       <c r="F108" s="1">
-        <v>79177673</v>
-      </c>
-      <c r="G108" s="11">
-        <v>2.5445838798810301</v>
-      </c>
-      <c r="H108" s="13">
-        <v>5.9771795817392104E-6</v>
+        <v>177617012</v>
+      </c>
+      <c r="G108">
+        <v>-2.5468572316362801</v>
+      </c>
+      <c r="H108" s="10">
+        <v>1.0884946846791201E-4</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D109" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E109" s="1">
-        <v>50534144</v>
+        <v>79172497</v>
       </c>
       <c r="F109" s="1">
-        <v>50558223</v>
-      </c>
-      <c r="G109" s="11">
-        <v>-2.5419386919623999</v>
-      </c>
-      <c r="H109" s="13">
-        <v>7.2169712255120198E-7</v>
+        <v>79177673</v>
+      </c>
+      <c r="G109">
+        <v>2.5445838798810301</v>
+      </c>
+      <c r="H109" s="12">
+        <v>5.9771795817392104E-6</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D110" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E110" s="1">
-        <v>37529815</v>
+        <v>50534144</v>
       </c>
       <c r="F110" s="1">
-        <v>37530977</v>
-      </c>
-      <c r="G110" s="11">
-        <v>-2.5382235017584498</v>
-      </c>
-      <c r="H110" s="10">
-        <v>8.3268250239311296E-4</v>
+        <v>50558223</v>
+      </c>
+      <c r="G110">
+        <v>-2.5419386919623999</v>
+      </c>
+      <c r="H110" s="12">
+        <v>7.2169712255120198E-7</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D111" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E111" s="1">
-        <v>38633861</v>
+        <v>37529815</v>
       </c>
       <c r="F111" s="1">
-        <v>38742882</v>
-      </c>
-      <c r="G111" s="11">
-        <v>2.5190004995491599</v>
-      </c>
-      <c r="H111" s="13">
-        <v>5.2397861026594397E-6</v>
+        <v>37530977</v>
+      </c>
+      <c r="G111">
+        <v>-2.5382235017584498</v>
+      </c>
+      <c r="H111" s="10">
+        <v>8.3268250239311296E-4</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D112" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E112" s="1">
-        <v>95146249</v>
+        <v>38633861</v>
       </c>
       <c r="F112" s="1">
-        <v>95166978</v>
-      </c>
-      <c r="G112" s="11">
-        <v>-2.5156521346504901</v>
-      </c>
-      <c r="H112" s="10">
-        <v>1.01276809767677E-4</v>
+        <v>38742882</v>
+      </c>
+      <c r="G112">
+        <v>2.5190004995491599</v>
+      </c>
+      <c r="H112" s="12">
+        <v>5.2397861026594397E-6</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D113" s="1">
         <v>9</v>
       </c>
       <c r="E113" s="1">
-        <v>101050391</v>
+        <v>95146249</v>
       </c>
       <c r="F113" s="1">
-        <v>101471479</v>
-      </c>
-      <c r="G113" s="11">
-        <v>2.5135866443042398</v>
+        <v>95166978</v>
+      </c>
+      <c r="G113">
+        <v>-2.5156521346504901</v>
       </c>
       <c r="H113" s="10">
-        <v>6.4478784202040497E-4</v>
+        <v>1.01276809767677E-4</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D114" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E114" s="1">
-        <v>8959520</v>
+        <v>101050391</v>
       </c>
       <c r="F114" s="1">
-        <v>9092018</v>
-      </c>
-      <c r="G114" s="11">
-        <v>2.51006071050984</v>
+        <v>101471479</v>
+      </c>
+      <c r="G114">
+        <v>2.5135866443042398</v>
       </c>
       <c r="H114" s="10">
-        <v>2.0921676804669501E-4</v>
+        <v>6.4478784202040497E-4</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B115" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D115" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E115" s="1">
-        <v>74620843</v>
+        <v>8959520</v>
       </c>
       <c r="F115" s="1">
-        <v>74639920</v>
-      </c>
-      <c r="G115" s="11">
-        <v>-2.5069162591970402</v>
-      </c>
-      <c r="H115" s="13">
-        <v>5.2003227797054003E-5</v>
+        <v>9092018</v>
+      </c>
+      <c r="G115">
+        <v>2.51006071050984</v>
+      </c>
+      <c r="H115" s="10">
+        <v>2.0921676804669501E-4</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B116" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D116" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E116" s="1">
-        <v>179527795</v>
+        <v>74620843</v>
       </c>
       <c r="F116" s="1">
-        <v>179636153</v>
-      </c>
-      <c r="G116" s="11">
-        <v>2.5042828303031701</v>
-      </c>
-      <c r="H116" s="13">
-        <v>4.6908246561320903E-6</v>
+        <v>74639920</v>
+      </c>
+      <c r="G116">
+        <v>-2.5069162591970402</v>
+      </c>
+      <c r="H116" s="12">
+        <v>5.2003227797054003E-5</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B117" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D117" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E117" s="1">
-        <v>1031808</v>
+        <v>179527795</v>
       </c>
       <c r="F117" s="1">
-        <v>1036979</v>
-      </c>
-      <c r="G117" s="11">
-        <v>2.4958569542517099</v>
-      </c>
-      <c r="H117" s="13">
-        <v>4.70745202594579E-5</v>
+        <v>179636153</v>
+      </c>
+      <c r="G117">
+        <v>2.5042828303031701</v>
+      </c>
+      <c r="H117" s="12">
+        <v>4.6908246561320903E-6</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D118" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E118" s="1">
-        <v>101402048</v>
+        <v>1031808</v>
       </c>
       <c r="F118" s="1">
-        <v>101414195</v>
-      </c>
-      <c r="G118" s="11">
-        <v>2.4957634701062599</v>
-      </c>
-      <c r="H118" s="13">
-        <v>6.5356514298171206E-8</v>
+        <v>1036979</v>
+      </c>
+      <c r="G118">
+        <v>2.4958569542517099</v>
+      </c>
+      <c r="H118" s="12">
+        <v>4.70745202594579E-5</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B119" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D119" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E119" s="1">
-        <v>103606012</v>
+        <v>101402048</v>
       </c>
       <c r="F119" s="1">
-        <v>103608296</v>
-      </c>
-      <c r="G119" s="11">
-        <v>2.4917305639619598</v>
-      </c>
-      <c r="H119" s="13">
-        <v>2.2952820870091901E-5</v>
+        <v>101414195</v>
+      </c>
+      <c r="G119">
+        <v>2.4957634701062599</v>
+      </c>
+      <c r="H119" s="12">
+        <v>6.5356514298171206E-8</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B120" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D120" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E120" s="1">
-        <v>78632666</v>
+        <v>103606012</v>
       </c>
       <c r="F120" s="1">
-        <v>78640572</v>
-      </c>
-      <c r="G120" s="11">
-        <v>2.4765967790185099</v>
-      </c>
-      <c r="H120" s="10">
-        <v>6.7748377999704405E-4</v>
+        <v>103608296</v>
+      </c>
+      <c r="G120">
+        <v>2.4917305639619598</v>
+      </c>
+      <c r="H120" s="12">
+        <v>2.2952820870091901E-5</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B121" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D121" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E121" s="1">
-        <v>30884900</v>
+        <v>78632666</v>
       </c>
       <c r="F121" s="1">
-        <v>30901698</v>
-      </c>
-      <c r="G121" s="11">
-        <v>2.4723547068103602</v>
-      </c>
-      <c r="H121" s="13">
-        <v>3.6718231784551801E-5</v>
+        <v>78640572</v>
+      </c>
+      <c r="G121">
+        <v>2.4765967790185099</v>
+      </c>
+      <c r="H121" s="10">
+        <v>6.7748377999704405E-4</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B122" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D122" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E122" s="1">
-        <v>59855734</v>
+        <v>30884900</v>
       </c>
       <c r="F122" s="1">
-        <v>59863444</v>
-      </c>
-      <c r="G122" s="11">
-        <v>-2.4637956282461002</v>
-      </c>
-      <c r="H122" s="13">
-        <v>1.49664615713056E-6</v>
+        <v>30901698</v>
+      </c>
+      <c r="G122">
+        <v>2.4723547068103602</v>
+      </c>
+      <c r="H122" s="12">
+        <v>3.6718231784551801E-5</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B123" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D123" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E123" s="1">
-        <v>127873706</v>
+        <v>59855734</v>
       </c>
       <c r="F123" s="1">
-        <v>128369335</v>
-      </c>
-      <c r="G123" s="11">
-        <v>2.4599217160879099</v>
-      </c>
-      <c r="H123" s="13">
-        <v>1.41348964379591E-5</v>
+        <v>59863444</v>
+      </c>
+      <c r="G123">
+        <v>-2.4637956282461002</v>
+      </c>
+      <c r="H123" s="12">
+        <v>1.49664615713056E-6</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B124" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D124" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E124" s="1">
-        <v>153600402</v>
+        <v>127873706</v>
       </c>
       <c r="F124" s="1">
-        <v>153604513</v>
-      </c>
-      <c r="G124" s="11">
-        <v>2.4570563433343899</v>
-      </c>
-      <c r="H124" s="13">
-        <v>5.3203652029495797E-5</v>
+        <v>128369335</v>
+      </c>
+      <c r="G124">
+        <v>2.4599217160879099</v>
+      </c>
+      <c r="H124" s="12">
+        <v>1.41348964379591E-5</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B125" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D125" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E125" s="1">
-        <v>1306060</v>
+        <v>153600402</v>
       </c>
       <c r="F125" s="1">
-        <v>1308532</v>
-      </c>
-      <c r="G125" s="11">
-        <v>-2.4133769902856401</v>
-      </c>
-      <c r="H125" s="13">
-        <v>4.2187106985293903E-5</v>
+        <v>153604513</v>
+      </c>
+      <c r="G125">
+        <v>2.4570563433343899</v>
+      </c>
+      <c r="H125" s="12">
+        <v>5.3203652029495797E-5</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B126" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D126" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E126" s="1">
-        <v>134973951</v>
+        <v>1306060</v>
       </c>
       <c r="F126" s="1">
-        <v>135039916</v>
-      </c>
-      <c r="G126" s="11">
-        <v>-2.4107570895446502</v>
-      </c>
-      <c r="H126" s="10">
-        <v>2.7643274228924403E-4</v>
+        <v>1308532</v>
+      </c>
+      <c r="G126">
+        <v>-2.4133769902856401</v>
+      </c>
+      <c r="H126" s="12">
+        <v>4.2187106985293903E-5</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B127" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D127" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E127" s="1">
-        <v>174305852</v>
+        <v>134973951</v>
       </c>
       <c r="F127" s="1">
-        <v>174327531</v>
-      </c>
-      <c r="G127" s="11">
-        <v>2.4042912397046901</v>
+        <v>135039916</v>
+      </c>
+      <c r="G127">
+        <v>-2.4107570895446502</v>
       </c>
       <c r="H127" s="10">
-        <v>1.0604368307114199E-4</v>
+        <v>2.7643274228924403E-4</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B128" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D128" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E128" s="1">
-        <v>238394071</v>
+        <v>174305852</v>
       </c>
       <c r="F128" s="1">
-        <v>238463961</v>
-      </c>
-      <c r="G128" s="11">
-        <v>-2.4022859722392802</v>
-      </c>
-      <c r="H128" s="13">
-        <v>3.8152712085497999E-5</v>
+        <v>174327531</v>
+      </c>
+      <c r="G128">
+        <v>2.4042912397046901</v>
+      </c>
+      <c r="H128" s="10">
+        <v>1.0604368307114199E-4</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B129" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D129" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129" s="1">
-        <v>169558087</v>
+        <v>238394071</v>
       </c>
       <c r="F129" s="1">
-        <v>169599431</v>
-      </c>
-      <c r="G129" s="11">
-        <v>-2.4021811809435598</v>
-      </c>
-      <c r="H129" s="10">
-        <v>2.97459605454457E-4</v>
+        <v>238463961</v>
+      </c>
+      <c r="G129">
+        <v>-2.4022859722392802</v>
+      </c>
+      <c r="H129" s="12">
+        <v>3.8152712085497999E-5</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B130" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
       <c r="E130" s="1">
-        <v>24882602</v>
+        <v>169558087</v>
       </c>
       <c r="F130" s="1">
-        <v>24935819</v>
-      </c>
-      <c r="G130" s="11">
-        <v>2.40094692112201</v>
-      </c>
-      <c r="H130" s="13">
-        <v>2.32601066682173E-5</v>
+        <v>169599431</v>
+      </c>
+      <c r="G130">
+        <v>-2.4021811809435598</v>
+      </c>
+      <c r="H130" s="10">
+        <v>2.97459605454457E-4</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B131" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
       </c>
       <c r="E131" s="1">
-        <v>239549865</v>
+        <v>24882602</v>
       </c>
       <c r="F131" s="1">
-        <v>240078750</v>
-      </c>
-      <c r="G131" s="11">
-        <v>2.3917980561372598</v>
-      </c>
-      <c r="H131" s="10">
-        <v>1.0189013628085301E-4</v>
+        <v>24935819</v>
+      </c>
+      <c r="G131">
+        <v>2.40094692112201</v>
+      </c>
+      <c r="H131" s="12">
+        <v>2.32601066682173E-5</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B132" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D132" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E132" s="1">
-        <v>35897908</v>
+        <v>239549865</v>
       </c>
       <c r="F132" s="1">
-        <v>35899633</v>
-      </c>
-      <c r="G132" s="11">
-        <v>2.3851795092216701</v>
-      </c>
-      <c r="H132" s="13">
-        <v>2.7838564123056201E-7</v>
+        <v>240078750</v>
+      </c>
+      <c r="G132">
+        <v>2.3917980561372598</v>
+      </c>
+      <c r="H132" s="10">
+        <v>1.0189013628085301E-4</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B133" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D133" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E133" s="1">
-        <v>53418109</v>
+        <v>35897908</v>
       </c>
       <c r="F133" s="1">
-        <v>53422775</v>
-      </c>
-      <c r="G133" s="11">
-        <v>2.3652222127124598</v>
-      </c>
-      <c r="H133" s="10">
-        <v>2.28453021851056E-4</v>
+        <v>35899633</v>
+      </c>
+      <c r="G133">
+        <v>2.3851795092216701</v>
+      </c>
+      <c r="H133" s="12">
+        <v>2.7838564123056201E-7</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B134" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D134" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E134" s="1">
-        <v>7753644</v>
+        <v>53418109</v>
       </c>
       <c r="F134" s="1">
-        <v>7767032</v>
-      </c>
-      <c r="G134" s="11">
-        <v>-2.3616503938158999</v>
+        <v>53422775</v>
+      </c>
+      <c r="G134">
+        <v>2.3652222127124598</v>
       </c>
       <c r="H134" s="10">
-        <v>7.6623348311866005E-4</v>
+        <v>2.28453021851056E-4</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B135" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D135" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E135" s="1">
-        <v>147103833</v>
+        <v>7753644</v>
       </c>
       <c r="F135" s="1">
-        <v>147124647</v>
-      </c>
-      <c r="G135" s="11">
-        <v>2.3592715399930402</v>
+        <v>7767032</v>
+      </c>
+      <c r="G135">
+        <v>-2.3616503938158999</v>
       </c>
       <c r="H135" s="10">
-        <v>3.3990986313193902E-4</v>
+        <v>7.6623348311866005E-4</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B136" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D136" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136" s="1">
-        <v>119599747</v>
+        <v>147103833</v>
       </c>
       <c r="F136" s="1">
-        <v>119605254</v>
-      </c>
-      <c r="G136" s="11">
-        <v>2.3579536159635301</v>
-      </c>
-      <c r="H136" s="13">
-        <v>3.1335927312446703E-5</v>
+        <v>147124647</v>
+      </c>
+      <c r="G136">
+        <v>2.3592715399930402</v>
+      </c>
+      <c r="H136" s="10">
+        <v>3.3990986313193902E-4</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B137" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
       </c>
       <c r="E137" s="1">
-        <v>121974163</v>
+        <v>119599747</v>
       </c>
       <c r="F137" s="1">
-        <v>122042783</v>
-      </c>
-      <c r="G137" s="11">
-        <v>2.3529863960725299</v>
-      </c>
-      <c r="H137" s="13">
-        <v>2.9693119354601701E-7</v>
+        <v>119605254</v>
+      </c>
+      <c r="G137">
+        <v>2.3579536159635301</v>
+      </c>
+      <c r="H137" s="12">
+        <v>3.1335927312446703E-5</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B138" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D138" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E138" s="1">
-        <v>41119481</v>
+        <v>121974163</v>
       </c>
       <c r="F138" s="1">
-        <v>41167016</v>
-      </c>
-      <c r="G138" s="11">
-        <v>2.3445551083060399</v>
-      </c>
-      <c r="H138" s="13">
-        <v>3.0634928536298799E-5</v>
+        <v>122042783</v>
+      </c>
+      <c r="G138">
+        <v>2.3529863960725299</v>
+      </c>
+      <c r="H138" s="12">
+        <v>2.9693119354601701E-7</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B139" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D139" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E139" s="1">
-        <v>90800683</v>
+        <v>41119481</v>
       </c>
       <c r="F139" s="1">
-        <v>90875780</v>
-      </c>
-      <c r="G139" s="11">
-        <v>-2.3328049612591699</v>
-      </c>
-      <c r="H139" s="13">
-        <v>1.9069184922663001E-5</v>
+        <v>41167016</v>
+      </c>
+      <c r="G139">
+        <v>2.3445551083060399</v>
+      </c>
+      <c r="H139" s="12">
+        <v>3.0634928536298799E-5</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B140" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D140" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E140" s="1">
-        <v>66863433</v>
+        <v>90800683</v>
       </c>
       <c r="F140" s="1">
-        <v>66951533</v>
-      </c>
-      <c r="G140" s="11">
-        <v>-2.3297133989576202</v>
-      </c>
-      <c r="H140" s="13">
-        <v>1.28048075568647E-5</v>
+        <v>90875780</v>
+      </c>
+      <c r="G140">
+        <v>-2.3328049612591699</v>
+      </c>
+      <c r="H140" s="12">
+        <v>1.9069184922663001E-5</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B141" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D141" s="1">
         <v>17</v>
       </c>
       <c r="E141" s="1">
-        <v>61926652</v>
+        <v>66863433</v>
       </c>
       <c r="F141" s="1">
-        <v>61941739</v>
-      </c>
-      <c r="G141" s="11">
-        <v>2.3294092820581902</v>
-      </c>
-      <c r="H141" s="10">
-        <v>2.8366748908837698E-4</v>
+        <v>66951533</v>
+      </c>
+      <c r="G141">
+        <v>-2.3297133989576202</v>
+      </c>
+      <c r="H141" s="12">
+        <v>1.28048075568647E-5</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B142" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C142" t="s">
-        <v>282</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>22</v>
+        <v>280</v>
+      </c>
+      <c r="D142" s="1">
+        <v>17</v>
       </c>
       <c r="E142" s="1">
-        <v>135614311</v>
+        <v>61926652</v>
       </c>
       <c r="F142" s="1">
-        <v>135638966</v>
-      </c>
-      <c r="G142" s="11">
-        <v>2.3275653318331302</v>
+        <v>61941739</v>
+      </c>
+      <c r="G142">
+        <v>2.3294092820581902</v>
       </c>
       <c r="H142" s="10">
-        <v>5.880902932613E-4</v>
+        <v>2.8366748908837698E-4</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B143" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C143" t="s">
-        <v>284</v>
-      </c>
-      <c r="D143" s="1">
-        <v>3</v>
+        <v>282</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E143" s="1">
-        <v>157154578</v>
+        <v>135614311</v>
       </c>
       <c r="F143" s="1">
-        <v>157161417</v>
-      </c>
-      <c r="G143" s="11">
-        <v>2.3220611020657702</v>
-      </c>
-      <c r="H143" s="13">
-        <v>2.0013331611543898E-5</v>
+        <v>135638966</v>
+      </c>
+      <c r="G143">
+        <v>2.3275653318331302</v>
+      </c>
+      <c r="H143" s="10">
+        <v>5.880902932613E-4</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B144" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D144" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E144" s="1">
-        <v>23804406</v>
+        <v>157154578</v>
       </c>
       <c r="F144" s="1">
-        <v>23807368</v>
-      </c>
-      <c r="G144" s="11">
-        <v>-2.3216727332701299</v>
-      </c>
-      <c r="H144" s="13">
-        <v>8.7393926840176095E-5</v>
+        <v>157161417</v>
+      </c>
+      <c r="G144">
+        <v>2.3220611020657702</v>
+      </c>
+      <c r="H144" s="12">
+        <v>2.0013331611543898E-5</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B145" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D145" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E145" s="1">
-        <v>3496030</v>
+        <v>23804406</v>
       </c>
       <c r="F145" s="1">
-        <v>4455335</v>
-      </c>
-      <c r="G145" s="11">
-        <v>2.3203807793526798</v>
-      </c>
-      <c r="H145" s="13">
-        <v>4.2506992796919798E-5</v>
+        <v>23807368</v>
+      </c>
+      <c r="G145">
+        <v>-2.3216727332701299</v>
+      </c>
+      <c r="H145" s="12">
+        <v>8.7393926840176095E-5</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B146" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D146" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E146" s="1">
-        <v>121772192</v>
+        <v>3496030</v>
       </c>
       <c r="F146" s="1">
-        <v>121814782</v>
-      </c>
-      <c r="G146" s="11">
-        <v>-2.3143804859785</v>
-      </c>
-      <c r="H146" s="10">
-        <v>6.5226306983291597E-4</v>
+        <v>4455335</v>
+      </c>
+      <c r="G146">
+        <v>2.3203807793526798</v>
+      </c>
+      <c r="H146" s="12">
+        <v>4.2506992796919798E-5</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B147" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D147" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E147" s="1">
-        <v>28569974</v>
+        <v>121772192</v>
       </c>
       <c r="F147" s="1">
-        <v>28622781</v>
-      </c>
-      <c r="G147" s="11">
-        <v>2.3055004776968802</v>
+        <v>121814782</v>
+      </c>
+      <c r="G147">
+        <v>-2.3143804859785</v>
       </c>
       <c r="H147" s="10">
-        <v>1.1893648594357799E-4</v>
+        <v>6.5226306983291597E-4</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B148" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D148" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E148" s="1">
-        <v>73357223</v>
+        <v>28569974</v>
       </c>
       <c r="F148" s="1">
-        <v>73373864</v>
-      </c>
-      <c r="G148" s="11">
-        <v>2.2954919871095698</v>
-      </c>
-      <c r="H148" s="13">
-        <v>6.8647575600723698E-6</v>
+        <v>28622781</v>
+      </c>
+      <c r="G148">
+        <v>2.3055004776968802</v>
+      </c>
+      <c r="H148" s="10">
+        <v>1.1893648594357799E-4</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B149" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D149" s="1">
         <v>11</v>
       </c>
       <c r="E149" s="1">
-        <v>113558272</v>
+        <v>73357223</v>
       </c>
       <c r="F149" s="1">
-        <v>113577095</v>
-      </c>
-      <c r="G149" s="11">
-        <v>2.2850162845748101</v>
-      </c>
-      <c r="H149" s="13">
-        <v>8.3245376965086001E-6</v>
+        <v>73373864</v>
+      </c>
+      <c r="G149">
+        <v>2.2954919871095698</v>
+      </c>
+      <c r="H149" s="12">
+        <v>6.8647575600723698E-6</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B150" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C150" t="s">
-        <v>298</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>22</v>
+        <v>296</v>
+      </c>
+      <c r="D150" s="1">
+        <v>11</v>
       </c>
       <c r="E150" s="1">
-        <v>37865835</v>
+        <v>113558272</v>
       </c>
       <c r="F150" s="1">
-        <v>37988072</v>
-      </c>
-      <c r="G150" s="11">
-        <v>-2.2841168386159398</v>
-      </c>
-      <c r="H150" s="10">
-        <v>6.4905693504618703E-4</v>
+        <v>113577095</v>
+      </c>
+      <c r="G150">
+        <v>2.2850162845748101</v>
+      </c>
+      <c r="H150" s="12">
+        <v>8.3245376965086001E-6</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B151" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C151" t="s">
-        <v>299</v>
-      </c>
-      <c r="D151" s="1">
-        <v>10</v>
+        <v>298</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E151" s="1">
-        <v>27220135</v>
+        <v>37865835</v>
       </c>
       <c r="F151" s="1">
-        <v>27230930</v>
-      </c>
-      <c r="G151" s="11">
-        <v>2.2838383159087599</v>
-      </c>
-      <c r="H151" s="13">
-        <v>2.8290877199556499E-6</v>
+        <v>37988072</v>
+      </c>
+      <c r="G151">
+        <v>-2.2841168386159398</v>
+      </c>
+      <c r="H151" s="10">
+        <v>6.4905693504618703E-4</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B152" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s">
-        <v>301</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>22</v>
+        <v>299</v>
+      </c>
+      <c r="D152" s="1">
+        <v>10</v>
       </c>
       <c r="E152" s="1">
-        <v>114752490</v>
+        <v>27220135</v>
       </c>
       <c r="F152" s="1">
-        <v>114797058</v>
-      </c>
-      <c r="G152" s="11">
-        <v>2.2794882309671101</v>
-      </c>
-      <c r="H152" s="13">
-        <v>3.1250974378930102E-6</v>
+        <v>27230930</v>
+      </c>
+      <c r="G152">
+        <v>2.2838383159087599</v>
+      </c>
+      <c r="H152" s="12">
+        <v>2.8290877199556499E-6</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B153" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
-      </c>
-      <c r="D153" s="1">
-        <v>15</v>
+        <v>301</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E153" s="1">
-        <v>42433332</v>
+        <v>114752490</v>
       </c>
       <c r="F153" s="1">
-        <v>42448839</v>
-      </c>
-      <c r="G153" s="11">
-        <v>-2.2698234144527301</v>
-      </c>
-      <c r="H153" s="10">
-        <v>1.00577161279847E-4</v>
+        <v>114797058</v>
+      </c>
+      <c r="G153">
+        <v>2.2794882309671101</v>
+      </c>
+      <c r="H153" s="12">
+        <v>3.1250974378930102E-6</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B154" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D154" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E154" s="1">
-        <v>43699267</v>
+        <v>42433332</v>
       </c>
       <c r="F154" s="1">
-        <v>43913194</v>
-      </c>
-      <c r="G154" s="11">
-        <v>2.2472177629461001</v>
+        <v>42448839</v>
+      </c>
+      <c r="G154">
+        <v>-2.2698234144527301</v>
       </c>
       <c r="H154" s="10">
-        <v>2.5935701055379399E-4</v>
+        <v>1.00577161279847E-4</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D155" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E155" s="1">
-        <v>48086448</v>
+        <v>43699267</v>
       </c>
       <c r="F155" s="1">
-        <v>48258194</v>
-      </c>
-      <c r="G155" s="11">
-        <v>2.24521851164062</v>
+        <v>43913194</v>
+      </c>
+      <c r="G155">
+        <v>2.2472177629461001</v>
       </c>
       <c r="H155" s="10">
-        <v>1.48438966317817E-4</v>
+        <v>2.5935701055379399E-4</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B156" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D156" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E156" s="1">
-        <v>47223510</v>
+        <v>48086448</v>
       </c>
       <c r="F156" s="1">
-        <v>47285085</v>
-      </c>
-      <c r="G156" s="11">
-        <v>-2.2363116216638299</v>
+        <v>48258194</v>
+      </c>
+      <c r="G156">
+        <v>2.24521851164062</v>
       </c>
       <c r="H156" s="10">
-        <v>6.74420315006534E-4</v>
+        <v>1.48438966317817E-4</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B157" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D157" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E157" s="1">
-        <v>137588068</v>
+        <v>47223510</v>
       </c>
       <c r="F157" s="1">
-        <v>137610360</v>
-      </c>
-      <c r="G157" s="11">
-        <v>2.2339447949935001</v>
+        <v>47285085</v>
+      </c>
+      <c r="G157">
+        <v>-2.2363116216638299</v>
       </c>
       <c r="H157" s="10">
-        <v>2.2987620180022701E-4</v>
+        <v>6.74420315006534E-4</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B158" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D158" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E158" s="1">
-        <v>75405667</v>
+        <v>137588068</v>
       </c>
       <c r="F158" s="1">
-        <v>75406654</v>
-      </c>
-      <c r="G158" s="11">
-        <v>2.2312514392134499</v>
-      </c>
-      <c r="H158" s="13">
-        <v>9.3038416348803401E-5</v>
+        <v>137610360</v>
+      </c>
+      <c r="G158">
+        <v>2.2339447949935001</v>
+      </c>
+      <c r="H158" s="10">
+        <v>2.2987620180022701E-4</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B159" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D159" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E159" s="1">
-        <v>93949738</v>
+        <v>75405667</v>
       </c>
       <c r="F159" s="1">
-        <v>94129265</v>
-      </c>
-      <c r="G159" s="11">
-        <v>2.2307058858061399</v>
-      </c>
-      <c r="H159" s="10">
-        <v>1.4015306373012999E-4</v>
+        <v>75406654</v>
+      </c>
+      <c r="G159">
+        <v>2.2312514392134499</v>
+      </c>
+      <c r="H159" s="12">
+        <v>9.3038416348803401E-5</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D160" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E160" s="1">
-        <v>17414432</v>
+        <v>93949738</v>
       </c>
       <c r="F160" s="1">
-        <v>17498449</v>
-      </c>
-      <c r="G160" s="11">
-        <v>-2.2288217967663502</v>
+        <v>94129265</v>
+      </c>
+      <c r="G160">
+        <v>2.2307058858061399</v>
       </c>
       <c r="H160" s="10">
-        <v>4.3698185061599102E-4</v>
+        <v>1.4015306373012999E-4</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B161" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D161" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E161" s="1">
-        <v>39722096</v>
+        <v>17414432</v>
       </c>
       <c r="F161" s="1">
-        <v>39728310</v>
-      </c>
-      <c r="G161" s="11">
-        <v>2.22457640097161</v>
-      </c>
-      <c r="H161" s="13">
-        <v>5.2003227797054003E-5</v>
+        <v>17498449</v>
+      </c>
+      <c r="G161">
+        <v>-2.2288217967663502</v>
+      </c>
+      <c r="H161" s="10">
+        <v>4.3698185061599102E-4</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B162" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D162" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E162" s="1">
-        <v>54945363</v>
+        <v>39722096</v>
       </c>
       <c r="F162" s="1">
-        <v>54945845</v>
-      </c>
-      <c r="G162" s="11">
-        <v>2.2237989561115601</v>
-      </c>
-      <c r="H162" s="10">
-        <v>1.1440534218608899E-4</v>
+        <v>39728310</v>
+      </c>
+      <c r="G162">
+        <v>2.22457640097161</v>
+      </c>
+      <c r="H162" s="12">
+        <v>5.2003227797054003E-5</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B163" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D163" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E163" s="1">
-        <v>11351510</v>
+        <v>54945363</v>
       </c>
       <c r="F163" s="1">
-        <v>11422113</v>
-      </c>
-      <c r="G163" s="11">
-        <v>-2.2176575882932399</v>
+        <v>54945845</v>
+      </c>
+      <c r="G163">
+        <v>2.2237989561115601</v>
       </c>
       <c r="H163" s="10">
-        <v>8.2531579780666098E-4</v>
+        <v>1.1440534218608899E-4</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B164" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D164" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E164" s="1">
-        <v>5823813</v>
+        <v>11351510</v>
       </c>
       <c r="F164" s="1">
-        <v>5828335</v>
-      </c>
-      <c r="G164" s="11">
-        <v>2.2122388618726698</v>
-      </c>
-      <c r="H164" s="13">
-        <v>7.9733315810199701E-6</v>
+        <v>11422113</v>
+      </c>
+      <c r="G164">
+        <v>-2.2176575882932399</v>
+      </c>
+      <c r="H164" s="10">
+        <v>8.2531579780666098E-4</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B165" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D165" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E165" s="1">
-        <v>75719749</v>
+        <v>5823813</v>
       </c>
       <c r="F165" s="1">
-        <v>75738097</v>
-      </c>
-      <c r="G165" s="11">
-        <v>-2.2058513520785401</v>
-      </c>
-      <c r="H165" s="10">
-        <v>2.9827945972083999E-4</v>
+        <v>5828335</v>
+      </c>
+      <c r="G165">
+        <v>2.2122388618726698</v>
+      </c>
+      <c r="H165" s="12">
+        <v>7.9733315810199701E-6</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B166" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D166" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E166" s="1">
-        <v>54138284</v>
+        <v>75719749</v>
       </c>
       <c r="F166" s="1">
-        <v>54164257</v>
-      </c>
-      <c r="G166" s="11">
-        <v>2.1986647149218399</v>
+        <v>75738097</v>
+      </c>
+      <c r="G166">
+        <v>-2.2058513520785401</v>
       </c>
       <c r="H166" s="10">
-        <v>4.2336014996421798E-4</v>
+        <v>2.9827945972083999E-4</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B167" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D167" s="1">
         <v>8</v>
       </c>
       <c r="E167" s="1">
-        <v>17354597</v>
+        <v>54138284</v>
       </c>
       <c r="F167" s="1">
-        <v>17428082</v>
-      </c>
-      <c r="G167" s="11">
-        <v>-2.1978106722415598</v>
-      </c>
-      <c r="H167" s="13">
-        <v>1.8867666580230799E-5</v>
+        <v>54164257</v>
+      </c>
+      <c r="G167">
+        <v>2.1986647149218399</v>
+      </c>
+      <c r="H167" s="10">
+        <v>4.2336014996421798E-4</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B168" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D168" s="1">
         <v>8</v>
       </c>
       <c r="E168" s="1">
-        <v>67372238</v>
+        <v>17354597</v>
       </c>
       <c r="F168" s="1">
-        <v>67430759</v>
-      </c>
-      <c r="G168" s="11">
-        <v>2.1865425289951599</v>
-      </c>
-      <c r="H168" s="13">
-        <v>6.0063683791763098E-5</v>
+        <v>17428082</v>
+      </c>
+      <c r="G168">
+        <v>-2.1978106722415598</v>
+      </c>
+      <c r="H168" s="12">
+        <v>1.8867666580230799E-5</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B169" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D169" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E169" s="1">
-        <v>9041071</v>
+        <v>67372238</v>
       </c>
       <c r="F169" s="1">
-        <v>9159661</v>
-      </c>
-      <c r="G169" s="11">
-        <v>-2.1834714730779701</v>
-      </c>
-      <c r="H169" s="13">
-        <v>4.0120552568934797E-5</v>
+        <v>67430759</v>
+      </c>
+      <c r="G169">
+        <v>2.1865425289951599</v>
+      </c>
+      <c r="H169" s="12">
+        <v>6.0063683791763098E-5</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B170" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D170" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E170" s="1">
-        <v>75543022</v>
+        <v>9041071</v>
       </c>
       <c r="F170" s="1">
-        <v>75559325</v>
-      </c>
-      <c r="G170" s="11">
-        <v>2.18092659543268</v>
-      </c>
-      <c r="H170" s="10">
-        <v>3.5179134333716502E-4</v>
+        <v>9159661</v>
+      </c>
+      <c r="G170">
+        <v>-2.1834714730779701</v>
+      </c>
+      <c r="H170" s="12">
+        <v>4.0120552568934797E-5</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B171" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D171" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E171" s="1">
-        <v>200311672</v>
+        <v>75543022</v>
       </c>
       <c r="F171" s="1">
-        <v>200343482</v>
-      </c>
-      <c r="G171" s="11">
-        <v>-2.1805515909834901</v>
+        <v>75559325</v>
+      </c>
+      <c r="G171">
+        <v>2.18092659543268</v>
       </c>
       <c r="H171" s="10">
-        <v>2.5118760073951498E-4</v>
+        <v>3.5179134333716502E-4</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B172" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D172" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E172" s="1">
-        <v>15987995</v>
+        <v>200311672</v>
       </c>
       <c r="F172" s="1">
-        <v>16761138</v>
-      </c>
-      <c r="G172" s="11">
-        <v>2.1692310141439299</v>
-      </c>
-      <c r="H172" s="13">
-        <v>7.7319155074670297E-7</v>
+        <v>200343482</v>
+      </c>
+      <c r="G172">
+        <v>-2.1805515909834901</v>
+      </c>
+      <c r="H172" s="10">
+        <v>2.5118760073951498E-4</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B173" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D173" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E173" s="1">
-        <v>8130286</v>
+        <v>15987995</v>
       </c>
       <c r="F173" s="1">
-        <v>8214730</v>
-      </c>
-      <c r="G173" s="11">
-        <v>2.1611066985994301</v>
-      </c>
-      <c r="H173" s="10">
-        <v>7.5426545815624195E-4</v>
+        <v>16761138</v>
+      </c>
+      <c r="G173">
+        <v>2.1692310141439299</v>
+      </c>
+      <c r="H173" s="12">
+        <v>7.7319155074670297E-7</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B174" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D174" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E174" s="1">
-        <v>143635067</v>
+        <v>8130286</v>
       </c>
       <c r="F174" s="1">
-        <v>143799890</v>
-      </c>
-      <c r="G174" s="11">
-        <v>-2.1527140728752201</v>
-      </c>
-      <c r="H174" s="13">
-        <v>2.60462879471559E-5</v>
+        <v>8214730</v>
+      </c>
+      <c r="G174">
+        <v>2.1611066985994301</v>
+      </c>
+      <c r="H174" s="10">
+        <v>7.5426545815624195E-4</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B175" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D175" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E175" s="1">
-        <v>129685714</v>
+        <v>143635067</v>
       </c>
       <c r="F175" s="1">
-        <v>129729898</v>
-      </c>
-      <c r="G175" s="11">
-        <v>-2.1433981235111501</v>
-      </c>
-      <c r="H175" s="10">
-        <v>4.70563832648568E-4</v>
+        <v>143799890</v>
+      </c>
+      <c r="G175">
+        <v>-2.1527140728752201</v>
+      </c>
+      <c r="H175" s="12">
+        <v>2.60462879471559E-5</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B176" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D176" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E176" s="1">
-        <v>205425057</v>
+        <v>129685714</v>
       </c>
       <c r="F176" s="1">
-        <v>205438152</v>
-      </c>
-      <c r="G176" s="11">
-        <v>2.1420294636702799</v>
-      </c>
-      <c r="H176" s="13">
-        <v>6.1226900704664295E-5</v>
+        <v>129729898</v>
+      </c>
+      <c r="G176">
+        <v>-2.1433981235111501</v>
+      </c>
+      <c r="H176" s="10">
+        <v>4.70563832648568E-4</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B177" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D177" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E177" s="1">
-        <v>23846017</v>
+        <v>205425057</v>
       </c>
       <c r="F177" s="1">
-        <v>23848981</v>
-      </c>
-      <c r="G177" s="11">
-        <v>2.1403777476946999</v>
-      </c>
-      <c r="H177" s="10">
-        <v>8.2981984723416095E-4</v>
+        <v>205438152</v>
+      </c>
+      <c r="G177">
+        <v>2.1420294636702799</v>
+      </c>
+      <c r="H177" s="12">
+        <v>6.1226900704664295E-5</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B178" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D178" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E178" s="1">
-        <v>27925019</v>
+        <v>23846017</v>
       </c>
       <c r="F178" s="1">
-        <v>27925960</v>
-      </c>
-      <c r="G178" s="11">
-        <v>2.1359496440851999</v>
-      </c>
-      <c r="H178" s="13">
-        <v>1.0766249878297599E-6</v>
+        <v>23848981</v>
+      </c>
+      <c r="G178">
+        <v>2.1403777476946999</v>
+      </c>
+      <c r="H178" s="10">
+        <v>8.2981984723416095E-4</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B179" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D179" s="1">
         <v>6</v>
       </c>
       <c r="E179" s="1">
-        <v>31982539</v>
+        <v>27925019</v>
       </c>
       <c r="F179" s="1">
-        <v>32003195</v>
-      </c>
-      <c r="G179" s="11">
-        <v>-2.12789384714829</v>
-      </c>
-      <c r="H179" s="10">
-        <v>2.28453021851056E-4</v>
+        <v>27925960</v>
+      </c>
+      <c r="G179">
+        <v>2.1359496440851999</v>
+      </c>
+      <c r="H179" s="12">
+        <v>1.0766249878297599E-6</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B180" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D180" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E180" s="1">
-        <v>36096105</v>
+        <v>31982539</v>
       </c>
       <c r="F180" s="1">
-        <v>36109478</v>
-      </c>
-      <c r="G180" s="11">
-        <v>-2.12698606509294</v>
+        <v>32003195</v>
+      </c>
+      <c r="G180">
+        <v>-2.12789384714829</v>
       </c>
       <c r="H180" s="10">
-        <v>7.3424209762274395E-4</v>
+        <v>2.28453021851056E-4</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B181" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D181" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E181" s="1">
-        <v>160085549</v>
+        <v>36096105</v>
       </c>
       <c r="F181" s="1">
-        <v>160113381</v>
-      </c>
-      <c r="G181" s="11">
-        <v>-2.1244960264483499</v>
+        <v>36109478</v>
+      </c>
+      <c r="G181">
+        <v>-2.12698606509294</v>
       </c>
       <c r="H181" s="10">
-        <v>8.61316192211615E-4</v>
+        <v>7.3424209762274395E-4</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B182" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D182" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E182" s="1">
-        <v>38036372</v>
+        <v>160085549</v>
       </c>
       <c r="F182" s="1">
-        <v>38040073</v>
-      </c>
-      <c r="G182" s="11">
-        <v>2.1141666241407799</v>
+        <v>160113381</v>
+      </c>
+      <c r="G182">
+        <v>-2.1244960264483499</v>
       </c>
       <c r="H182" s="10">
-        <v>1.54443809796088E-4</v>
+        <v>8.61316192211615E-4</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B183" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D183" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E183" s="1">
-        <v>19286755</v>
+        <v>38036372</v>
       </c>
       <c r="F183" s="1">
-        <v>19290553</v>
-      </c>
-      <c r="G183" s="11">
-        <v>-2.1140096508909498</v>
-      </c>
-      <c r="H183" s="13">
-        <v>1.5248974972827201E-5</v>
+        <v>38040073</v>
+      </c>
+      <c r="G183">
+        <v>2.1141666241407799</v>
+      </c>
+      <c r="H183" s="10">
+        <v>1.54443809796088E-4</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B184" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D184" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E184" s="1">
-        <v>52708085</v>
+        <v>19286755</v>
       </c>
       <c r="F184" s="1">
-        <v>52715182</v>
-      </c>
-      <c r="G184" s="11">
-        <v>2.0991067843312199</v>
-      </c>
-      <c r="H184" s="10">
-        <v>1.05628077784434E-4</v>
+        <v>19290553</v>
+      </c>
+      <c r="G184">
+        <v>-2.1140096508909498</v>
+      </c>
+      <c r="H184" s="12">
+        <v>1.5248974972827201E-5</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B185" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D185" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E185" s="1">
-        <v>65488337</v>
+        <v>52708085</v>
       </c>
       <c r="F185" s="1">
-        <v>65503826</v>
-      </c>
-      <c r="G185" s="11">
-        <v>-2.0960277645673</v>
-      </c>
-      <c r="H185" s="13">
-        <v>3.80684323273499E-5</v>
+        <v>52715182</v>
+      </c>
+      <c r="G185">
+        <v>2.0991067843312199</v>
+      </c>
+      <c r="H185" s="10">
+        <v>1.05628077784434E-4</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B186" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D186" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E186" s="1">
-        <v>10429488</v>
+        <v>65488337</v>
       </c>
       <c r="F186" s="1">
-        <v>10435107</v>
-      </c>
-      <c r="G186" s="11">
-        <v>2.0952652128030298</v>
-      </c>
-      <c r="H186" s="10">
-        <v>5.1529927323595804E-4</v>
+        <v>65503826</v>
+      </c>
+      <c r="G186">
+        <v>-2.0960277645673</v>
+      </c>
+      <c r="H186" s="12">
+        <v>3.80684323273499E-5</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D187" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E187" s="1">
-        <v>54844456</v>
+        <v>10429488</v>
       </c>
       <c r="F187" s="1">
-        <v>54850421</v>
-      </c>
-      <c r="G187" s="11">
-        <v>-2.0950018255167602</v>
-      </c>
-      <c r="H187" s="13">
-        <v>4.59084789377639E-5</v>
+        <v>10435107</v>
+      </c>
+      <c r="G187">
+        <v>2.0952652128030298</v>
+      </c>
+      <c r="H187" s="10">
+        <v>5.1529927323595804E-4</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B188" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D188" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E188" s="1">
-        <v>9495005</v>
+        <v>54844456</v>
       </c>
       <c r="F188" s="1">
-        <v>9511171</v>
-      </c>
-      <c r="G188" s="11">
-        <v>-2.0935699599706399</v>
-      </c>
-      <c r="H188" s="13">
-        <v>3.0512524608625398E-6</v>
+        <v>54850421</v>
+      </c>
+      <c r="G188">
+        <v>-2.0950018255167602</v>
+      </c>
+      <c r="H188" s="12">
+        <v>4.59084789377639E-5</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B189" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D189" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E189" s="1">
-        <v>58654934</v>
+        <v>9495005</v>
       </c>
       <c r="F189" s="1">
-        <v>59290901</v>
-      </c>
-      <c r="G189" s="11">
-        <v>2.0931017883076199</v>
-      </c>
-      <c r="H189" s="13">
-        <v>3.76746027667861E-6</v>
+        <v>9511171</v>
+      </c>
+      <c r="G189">
+        <v>-2.0935699599706399</v>
+      </c>
+      <c r="H189" s="12">
+        <v>3.0512524608625398E-6</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B190" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D190" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190" s="1">
-        <v>24197016</v>
+        <v>58654934</v>
       </c>
       <c r="F190" s="1">
-        <v>24285549</v>
-      </c>
-      <c r="G190" s="11">
-        <v>-2.0919607546978298</v>
-      </c>
-      <c r="H190" s="10">
-        <v>6.2228123338967404E-4</v>
+        <v>59290901</v>
+      </c>
+      <c r="G190">
+        <v>2.0931017883076199</v>
+      </c>
+      <c r="H190" s="12">
+        <v>3.76746027667861E-6</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B191" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D191" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E191" s="1">
-        <v>202897493</v>
+        <v>24197016</v>
       </c>
       <c r="F191" s="1">
-        <v>202898260</v>
-      </c>
-      <c r="G191" s="11">
-        <v>2.08916447688684</v>
-      </c>
-      <c r="H191" s="13">
-        <v>9.7414365795856105E-8</v>
+        <v>24285549</v>
+      </c>
+      <c r="G191">
+        <v>-2.0919607546978298</v>
+      </c>
+      <c r="H191" s="10">
+        <v>6.2228123338967404E-4</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B192" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D192" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E192" s="1">
-        <v>69755365</v>
+        <v>202897493</v>
       </c>
       <c r="F192" s="1">
-        <v>69863775</v>
-      </c>
-      <c r="G192" s="11">
-        <v>-2.0888964662806102</v>
-      </c>
-      <c r="H192" s="10">
-        <v>4.5972822425023E-4</v>
+        <v>202898260</v>
+      </c>
+      <c r="G192">
+        <v>2.08916447688684</v>
+      </c>
+      <c r="H192" s="12">
+        <v>9.7414365795856105E-8</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B193" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D193" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E193" s="1">
-        <v>28943260</v>
+        <v>69755365</v>
       </c>
       <c r="F193" s="1">
-        <v>28950667</v>
-      </c>
-      <c r="G193" s="11">
-        <v>-2.0861511321108899</v>
+        <v>69863775</v>
+      </c>
+      <c r="G193">
+        <v>-2.0888964662806102</v>
       </c>
       <c r="H193" s="10">
-        <v>3.8189694799598201E-4</v>
+        <v>4.5972822425023E-4</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B194" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D194" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E194" s="1">
-        <v>63788730</v>
+        <v>28943260</v>
       </c>
       <c r="F194" s="1">
-        <v>63790797</v>
-      </c>
-      <c r="G194" s="11">
-        <v>2.0852447151710298</v>
+        <v>28950667</v>
+      </c>
+      <c r="G194">
+        <v>-2.0861511321108899</v>
       </c>
       <c r="H194" s="10">
-        <v>2.10175760291151E-4</v>
+        <v>3.8189694799598201E-4</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B195" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D195" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E195" s="1">
-        <v>39156749</v>
+        <v>63788730</v>
       </c>
       <c r="F195" s="1">
-        <v>39197226</v>
-      </c>
-      <c r="G195" s="11">
-        <v>2.0771769766094801</v>
-      </c>
-      <c r="H195" s="13">
-        <v>2.5547590552475198E-7</v>
+        <v>63790797</v>
+      </c>
+      <c r="G195">
+        <v>2.0852447151710298</v>
+      </c>
+      <c r="H195" s="10">
+        <v>2.10175760291151E-4</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B196" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D196" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E196" s="1">
-        <v>15919554</v>
+        <v>39156749</v>
       </c>
       <c r="F196" s="1">
-        <v>15921078</v>
-      </c>
-      <c r="G196" s="11">
-        <v>2.0697437173618498</v>
-      </c>
-      <c r="H196" s="13">
-        <v>4.5782019381712696E-9</v>
+        <v>39197226</v>
+      </c>
+      <c r="G196">
+        <v>2.0771769766094801</v>
+      </c>
+      <c r="H196" s="12">
+        <v>2.5547590552475198E-7</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B197" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D197" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E197" s="1">
-        <v>37945543</v>
+        <v>15919554</v>
       </c>
       <c r="F197" s="1">
-        <v>38065297</v>
-      </c>
-      <c r="G197" s="11">
-        <v>-2.0696376134796202</v>
-      </c>
-      <c r="H197" s="13">
-        <v>1.2408959436494799E-5</v>
+        <v>15921078</v>
+      </c>
+      <c r="G197">
+        <v>2.0697437173618498</v>
+      </c>
+      <c r="H197" s="12">
+        <v>4.5782019381712696E-9</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B198" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C198" t="s">
-        <v>393</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>22</v>
+        <v>391</v>
+      </c>
+      <c r="D198" s="1">
+        <v>7</v>
       </c>
       <c r="E198" s="1">
-        <v>105066536</v>
+        <v>37945543</v>
       </c>
       <c r="F198" s="1">
-        <v>105202602</v>
-      </c>
-      <c r="G198" s="11">
-        <v>-2.0683993038431998</v>
-      </c>
-      <c r="H198" s="10">
-        <v>7.0548303847903302E-4</v>
+        <v>38065297</v>
+      </c>
+      <c r="G198">
+        <v>-2.0696376134796202</v>
+      </c>
+      <c r="H198" s="12">
+        <v>1.2408959436494799E-5</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B199" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C199" t="s">
-        <v>395</v>
-      </c>
-      <c r="D199" s="1">
-        <v>11</v>
+        <v>393</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E199" s="1">
-        <v>63320242</v>
+        <v>105066536</v>
       </c>
       <c r="F199" s="1">
-        <v>63330855</v>
-      </c>
-      <c r="G199" s="11">
-        <v>-2.0680418586782401</v>
+        <v>105202602</v>
+      </c>
+      <c r="G199">
+        <v>-2.0683993038431998</v>
       </c>
       <c r="H199" s="10">
-        <v>6.4905693504618703E-4</v>
+        <v>7.0548303847903302E-4</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B200" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D200" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E200" s="1">
-        <v>26346375</v>
+        <v>63320242</v>
       </c>
       <c r="F200" s="1">
-        <v>26362955</v>
-      </c>
-      <c r="G200" s="11">
-        <v>2.0598774166866498</v>
+        <v>63330855</v>
+      </c>
+      <c r="G200">
+        <v>-2.0680418586782401</v>
       </c>
       <c r="H200" s="10">
-        <v>3.6966971951485502E-4</v>
+        <v>6.4905693504618703E-4</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B201" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D201" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E201" s="1">
-        <v>43857811</v>
+        <v>26346375</v>
       </c>
       <c r="F201" s="1">
-        <v>43867480</v>
-      </c>
-      <c r="G201" s="11">
-        <v>-2.0549289817916399</v>
+        <v>26362955</v>
+      </c>
+      <c r="G201">
+        <v>2.0598774166866498</v>
       </c>
       <c r="H201" s="10">
-        <v>2.8254290880326999E-4</v>
+        <v>3.6966971951485502E-4</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B202" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D202" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E202" s="1">
-        <v>61143994</v>
+        <v>43857811</v>
       </c>
       <c r="F202" s="1">
-        <v>61172318</v>
-      </c>
-      <c r="G202" s="11">
-        <v>2.0544207452286098</v>
+        <v>43867480</v>
+      </c>
+      <c r="G202">
+        <v>-2.0549289817916399</v>
       </c>
       <c r="H202" s="10">
-        <v>3.33436259827675E-4</v>
+        <v>2.8254290880326999E-4</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B203" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D203" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E203" s="1">
-        <v>117816444</v>
+        <v>61143994</v>
       </c>
       <c r="F203" s="1">
-        <v>118032979</v>
-      </c>
-      <c r="G203" s="11">
-        <v>-2.05292181644313</v>
+        <v>61172318</v>
+      </c>
+      <c r="G203">
+        <v>2.0544207452286098</v>
       </c>
       <c r="H203" s="10">
-        <v>3.4680678065921599E-4</v>
+        <v>3.33436259827675E-4</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B204" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D204" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E204" s="1">
-        <v>134906373</v>
+        <v>117816444</v>
       </c>
       <c r="F204" s="1">
-        <v>134914969</v>
-      </c>
-      <c r="G204" s="11">
-        <v>-2.0525801445975298</v>
+        <v>118032979</v>
+      </c>
+      <c r="G204">
+        <v>-2.05292181644313</v>
       </c>
       <c r="H204" s="10">
-        <v>1.2954687277762599E-4</v>
+        <v>3.4680678065921599E-4</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B205" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C205" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D205" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E205" s="1">
-        <v>14472089</v>
+        <v>134906373</v>
       </c>
       <c r="F205" s="1">
-        <v>14889793</v>
-      </c>
-      <c r="G205" s="11">
-        <v>-2.0436844520232902</v>
+        <v>134914969</v>
+      </c>
+      <c r="G205">
+        <v>-2.0525801445975298</v>
       </c>
       <c r="H205" s="10">
-        <v>2.2604735010935299E-4</v>
+        <v>1.2954687277762599E-4</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B206" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C206" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D206" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E206" s="1">
-        <v>15619304</v>
+        <v>14472089</v>
       </c>
       <c r="F206" s="1">
-        <v>15663128</v>
-      </c>
-      <c r="G206" s="11">
-        <v>-2.0431820664898699</v>
+        <v>14889793</v>
+      </c>
+      <c r="G206">
+        <v>-2.0436844520232902</v>
       </c>
       <c r="H206" s="10">
-        <v>6.4582701793502301E-4</v>
+        <v>2.2604735010935299E-4</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B207" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C207" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D207" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E207" s="1">
-        <v>174151536</v>
+        <v>15619304</v>
       </c>
       <c r="F207" s="1">
-        <v>174157896</v>
-      </c>
-      <c r="G207" s="11">
-        <v>-2.0421901070280399</v>
+        <v>15663128</v>
+      </c>
+      <c r="G207">
+        <v>-2.0431820664898699</v>
       </c>
       <c r="H207" s="10">
-        <v>5.6207929031553403E-4</v>
+        <v>6.4582701793502301E-4</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B208" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D208" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E208" s="1">
-        <v>196710761</v>
+        <v>174151536</v>
       </c>
       <c r="F208" s="1">
-        <v>196714429</v>
-      </c>
-      <c r="G208" s="11">
-        <v>2.0399641330016101</v>
-      </c>
-      <c r="H208" s="13">
-        <v>1.9930184398951901E-7</v>
+        <v>174157896</v>
+      </c>
+      <c r="G208">
+        <v>-2.0421901070280399</v>
+      </c>
+      <c r="H208" s="10">
+        <v>5.6207929031553403E-4</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B209" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C209" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D209" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E209" s="1">
-        <v>42970991</v>
+        <v>196710761</v>
       </c>
       <c r="F209" s="1">
-        <v>42990784</v>
-      </c>
-      <c r="G209" s="11">
-        <v>2.03294905123022</v>
-      </c>
-      <c r="H209" s="13">
-        <v>7.1683678843917E-6</v>
+        <v>196714429</v>
+      </c>
+      <c r="G209">
+        <v>2.0399641330016101</v>
+      </c>
+      <c r="H209" s="12">
+        <v>1.9930184398951901E-7</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B210" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C210" t="s">
-        <v>417</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>22</v>
+        <v>415</v>
+      </c>
+      <c r="D210" s="1">
+        <v>10</v>
       </c>
       <c r="E210" s="1">
-        <v>54219256</v>
+        <v>42970991</v>
       </c>
       <c r="F210" s="1">
-        <v>54385075</v>
-      </c>
-      <c r="G210" s="11">
-        <v>2.0303075069990002</v>
-      </c>
-      <c r="H210" s="13">
-        <v>4.5782019381712696E-9</v>
+        <v>42990784</v>
+      </c>
+      <c r="G210">
+        <v>2.03294905123022</v>
+      </c>
+      <c r="H210" s="12">
+        <v>7.1683678843917E-6</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B211" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C211" t="s">
-        <v>419</v>
-      </c>
-      <c r="D211" s="1">
-        <v>11</v>
+        <v>417</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E211" s="1">
-        <v>118032666</v>
+        <v>54219256</v>
       </c>
       <c r="F211" s="1">
-        <v>118047388</v>
-      </c>
-      <c r="G211" s="11">
-        <v>-2.0297612188415401</v>
-      </c>
-      <c r="H211" s="10">
-        <v>3.3863633074728E-4</v>
+        <v>54385075</v>
+      </c>
+      <c r="G211">
+        <v>2.0303075069990002</v>
+      </c>
+      <c r="H211" s="12">
+        <v>4.5782019381712696E-9</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B212" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C212" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D212" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E212" s="1">
-        <v>63786555</v>
+        <v>118032666</v>
       </c>
       <c r="F212" s="1">
-        <v>63790112</v>
-      </c>
-      <c r="G212" s="11">
-        <v>2.02829795469192</v>
+        <v>118047388</v>
+      </c>
+      <c r="G212">
+        <v>-2.0297612188415401</v>
       </c>
       <c r="H212" s="10">
-        <v>3.0356509862862799E-4</v>
+        <v>3.3863633074728E-4</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B213" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C213" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
       </c>
       <c r="E213" s="1">
-        <v>46640745</v>
+        <v>63786555</v>
       </c>
       <c r="F213" s="1">
-        <v>46651630</v>
-      </c>
-      <c r="G213" s="11">
-        <v>-2.0270674659417001</v>
+        <v>63790112</v>
+      </c>
+      <c r="G213">
+        <v>2.02829795469192</v>
       </c>
       <c r="H213" s="10">
-        <v>5.6207929031553403E-4</v>
+        <v>3.0356509862862799E-4</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B214" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C214" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D214" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E214" s="1">
-        <v>98782014</v>
+        <v>46640745</v>
       </c>
       <c r="F214" s="1">
-        <v>98790247</v>
-      </c>
-      <c r="G214" s="11">
-        <v>2.0246997334469201</v>
+        <v>46651630</v>
+      </c>
+      <c r="G214">
+        <v>-2.0270674659417001</v>
       </c>
       <c r="H214" s="10">
-        <v>4.0432903226518698E-4</v>
+        <v>5.6207929031553403E-4</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B215" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C215" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D215" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E215" s="1">
-        <v>24974559</v>
+        <v>98782014</v>
       </c>
       <c r="F215" s="1">
-        <v>24977471</v>
-      </c>
-      <c r="G215" s="11">
-        <v>-2.0187006952873499</v>
+        <v>98790247</v>
+      </c>
+      <c r="G215">
+        <v>2.0246997334469201</v>
       </c>
       <c r="H215" s="10">
-        <v>2.5193116161666102E-4</v>
+        <v>4.0432903226518698E-4</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B216" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C216" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D216" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E216" s="1">
-        <v>91444268</v>
+        <v>24974559</v>
       </c>
       <c r="F216" s="1">
-        <v>91451760</v>
-      </c>
-      <c r="G216" s="11">
-        <v>-2.0182040130306298</v>
+        <v>24977471</v>
+      </c>
+      <c r="G216">
+        <v>-2.0187006952873499</v>
       </c>
       <c r="H216" s="10">
-        <v>2.9678430317002101E-4</v>
+        <v>2.5193116161666102E-4</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B217" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C217" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D217" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E217" s="1">
-        <v>89763559</v>
+        <v>91444268</v>
       </c>
       <c r="F217" s="1">
-        <v>89774471</v>
-      </c>
-      <c r="G217" s="11">
-        <v>2.0174697298638402</v>
-      </c>
-      <c r="H217" s="13">
-        <v>1.06458720420945E-6</v>
+        <v>91451760</v>
+      </c>
+      <c r="G217">
+        <v>-2.0182040130306298</v>
+      </c>
+      <c r="H217" s="10">
+        <v>2.9678430317002101E-4</v>
       </c>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B218" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C218" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D218" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E218" s="1">
-        <v>106170301</v>
+        <v>89763559</v>
       </c>
       <c r="F218" s="1">
-        <v>106170939</v>
-      </c>
-      <c r="G218" s="11">
-        <v>-2.01457787953699</v>
-      </c>
-      <c r="H218" s="10">
-        <v>3.7864007746787502E-4</v>
+        <v>89774471</v>
+      </c>
+      <c r="G218">
+        <v>2.0174697298638402</v>
+      </c>
+      <c r="H218" s="12">
+        <v>1.06458720420945E-6</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B219" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C219" t="s">
+        <v>432</v>
+      </c>
+      <c r="D219" s="1">
+        <v>14</v>
+      </c>
+      <c r="E219" s="1">
+        <v>106170301</v>
+      </c>
+      <c r="F219" s="1">
+        <v>106170939</v>
+      </c>
+      <c r="G219">
+        <v>-2.01457787953699</v>
+      </c>
+      <c r="H219" s="10">
+        <v>3.7864007746787502E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B220" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C220" t="s">
         <v>434</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D220" s="1">
         <v>12</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E220" s="1">
         <v>49726200</v>
       </c>
-      <c r="F219" s="1">
+      <c r="F220" s="1">
         <v>49730971</v>
       </c>
-      <c r="G219" s="11">
+      <c r="G220">
         <v>2.00630084209191</v>
       </c>
-      <c r="H219" s="10">
+      <c r="H220" s="10">
         <v>4.1549870968110402E-4</v>
       </c>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B220" s="3" t="s">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B221" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C221" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D220" s="5">
+      <c r="D221" s="5">
         <v>7</v>
       </c>
-      <c r="E220" s="5">
+      <c r="E221" s="5">
         <v>138279030</v>
       </c>
-      <c r="F220" s="5">
+      <c r="F221" s="5">
         <v>138386097</v>
       </c>
-      <c r="G220" s="4">
+      <c r="G221" s="4">
         <v>2.0023375093182598</v>
       </c>
-      <c r="H220" s="14">
+      <c r="H221" s="13">
         <v>1.1389544522608001E-5</v>
       </c>
     </row>
@@ -6872,6 +6880,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e1637b12-34ed-4347-89aa-c823d56f7d44">
@@ -6880,15 +6897,6 @@
     <TaxCatchAll xmlns="2e30bdc4-e966-4980-ab6c-87ac2df3b540" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7141,20 +7149,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78B647F2-DB18-49C5-AAAA-0AD96B034599}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC9ACF7-78B8-4592-9101-762D908D39D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e1637b12-34ed-4347-89aa-c823d56f7d44"/>
     <ds:schemaRef ds:uri="2e30bdc4-e966-4980-ab6c-87ac2df3b540"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78B647F2-DB18-49C5-AAAA-0AD96B034599}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
